--- a/CIA_world_factbook_country_comparisons.xlsx
+++ b/CIA_world_factbook_country_comparisons.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LifeExpectancyAtBirth" sheetId="1" r:id="rId1"/>
-    <sheet name="GDP per capita" sheetId="2" r:id="rId2"/>
-    <sheet name="Gini index" sheetId="3" r:id="rId3"/>
+    <sheet name="Continents" sheetId="4" r:id="rId2"/>
+    <sheet name="GDP per capita" sheetId="2" r:id="rId3"/>
+    <sheet name="Gini index" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="286">
   <si>
     <t>Monaco</t>
   </si>
@@ -734,6 +735,159 @@
   </si>
   <si>
     <t>Gini Index Income Inequality</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Congo - Brazzaville</t>
+  </si>
+  <si>
+    <t>Congo - Kinshasa</t>
+  </si>
+  <si>
+    <t>C√¥te d‚ÄôIvoire</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>R√©union</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>S√£o Tom√© and Pr√≠ncipe</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Saint Barth√©lemy</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR China</t>
+  </si>
+  <si>
+    <t>Macau SAR China</t>
+  </si>
+  <si>
+    <t>Myanmar [Burma]</t>
+  </si>
+  <si>
+    <t>Neutral Zone</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Palestinian Territories</t>
+  </si>
+  <si>
+    <t>People's Democratic Republic of Yemen</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>Metropolitan France</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Union of Soviet Socialist Republics</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>√Öland Islands</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos [Keeling] Islands</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>U.S. Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1217,7 @@
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
@@ -1076,1181 +1230,1476 @@
       <c r="D1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>51.7</v>
+        <v>78.5</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(A2,'GDP per capita'!A:B,2)</f>
-        <v>1900</v>
-      </c>
-      <c r="D2" t="e">
+        <v>11800</v>
+      </c>
+      <c r="D2">
         <f>VLOOKUP(A2,'Gini index'!A:B,2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>78.5</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(A3,'GDP per capita'!A:B,2)</f>
-        <v>11800</v>
+        <v>15000</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3,'Gini index'!A:B,2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(A4,'GDP per capita'!A:B,2)</f>
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(A4,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>73.400000000000006</v>
+        <v>82.9</v>
       </c>
       <c r="C5">
         <f>VLOOKUP(A5,'GDP per capita'!A:B,2)</f>
-        <v>13000</v>
+        <v>49900</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(A5,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="B6">
-        <v>82.9</v>
+        <v>60.2</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(A6,'GDP per capita'!A:B,2)</f>
-        <v>49900</v>
+        <v>6800</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(A6,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>60.2</v>
+        <v>81.5</v>
       </c>
       <c r="C7">
         <f>VLOOKUP(A7,'GDP per capita'!A:B,2)</f>
-        <v>6800</v>
+        <v>12200</v>
       </c>
       <c r="D7">
         <f>VLOOKUP(A7,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>81.5</v>
+        <v>76.7</v>
       </c>
       <c r="C8">
         <f>VLOOKUP(A8,'GDP per capita'!A:B,2)</f>
-        <v>12200</v>
+        <v>25200</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(A8,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>76.7</v>
+        <v>77.3</v>
       </c>
       <c r="C9">
         <f>VLOOKUP(A9,'GDP per capita'!A:B,2)</f>
-        <v>25200</v>
+        <v>20000</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(A9,'Gini index'!A:B,2)</f>
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42.7</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>77.3</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C10">
         <f>VLOOKUP(A10,'GDP per capita'!A:B,2)</f>
-        <v>20000</v>
+        <v>8600</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(A10,'Gini index'!A:B,2)</f>
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.5</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>74.900000000000006</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C11">
         <f>VLOOKUP(A11,'GDP per capita'!A:B,2)</f>
-        <v>8600</v>
+        <v>25300</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(A11,'Gini index'!A:B,2)</f>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>76.900000000000006</v>
+        <v>82.3</v>
       </c>
       <c r="C12">
         <f>VLOOKUP(A12,'GDP per capita'!A:B,2)</f>
-        <v>25300</v>
+        <v>48900</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(A12,'Gini index'!A:B,2)</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.3</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>82.3</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C13">
         <f>VLOOKUP(A13,'GDP per capita'!A:B,2)</f>
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(A13,'Gini index'!A:B,2)</f>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.2</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B14">
-        <v>81.599999999999994</v>
+        <v>72.8</v>
       </c>
       <c r="C14">
         <f>VLOOKUP(A14,'GDP per capita'!A:B,2)</f>
-        <v>48000</v>
+        <v>17400</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(A14,'Gini index'!A:B,2)</f>
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15">
-        <v>72.8</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C15">
         <f>VLOOKUP(A15,'GDP per capita'!A:B,2)</f>
-        <v>17400</v>
+        <v>24600</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(A15,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>72.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <f>VLOOKUP(A16,'GDP per capita'!A:B,2)</f>
-        <v>24600</v>
+        <v>50700</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(A16,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C17">
         <f>VLOOKUP(A17,'GDP per capita'!A:B,2)</f>
-        <v>50700</v>
+        <v>3900</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(A17,'Gini index'!A:B,2)</f>
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.1</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B18">
-        <v>73.400000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="C18">
         <f>VLOOKUP(A18,'GDP per capita'!A:B,2)</f>
-        <v>3900</v>
+        <v>17100</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(A18,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B19">
-        <v>75.5</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <f>VLOOKUP(A19,'GDP per capita'!A:B,2)</f>
-        <v>17100</v>
+        <v>18000</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(A19,'Gini index'!A:B,2)</f>
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.5</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="C20">
         <f>VLOOKUP(A20,'GDP per capita'!A:B,2)</f>
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(A20,'Gini index'!A:B,2)</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.9</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(A20,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B21">
-        <v>81.099999999999994</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C21">
         <f>VLOOKUP(A21,'GDP per capita'!A:B,2)</f>
-        <v>45000</v>
+        <v>8200</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(A21,'Gini index'!A:B,2)</f>
         <v>25.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f>VLOOKUP(A21,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B22">
-        <v>68.900000000000006</v>
+        <v>62.3</v>
       </c>
       <c r="C22">
         <f>VLOOKUP(A22,'GDP per capita'!A:B,2)</f>
-        <v>8200</v>
+        <v>2100</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(A22,'Gini index'!A:B,2)</f>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.5</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(A22,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>62.3</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="C23">
         <f>VLOOKUP(A23,'GDP per capita'!A:B,2)</f>
-        <v>2100</v>
+        <v>85700</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(A23,'Gini index'!A:B,2)</f>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f>VLOOKUP(A23,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B24">
-        <v>81.400000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C24">
         <f>VLOOKUP(A24,'GDP per capita'!A:B,2)</f>
-        <v>85700</v>
+        <v>8200</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(A24,'Gini index'!A:B,2)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(A24,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B25">
-        <v>70.599999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="C25">
         <f>VLOOKUP(A25,'GDP per capita'!A:B,2)</f>
-        <v>8200</v>
+        <v>7200</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(A25,'Gini index'!A:B,2)</f>
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>69.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(A26,'GDP per capita'!A:B,2)</f>
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(A26,'Gini index'!A:B,2)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="B27">
-        <v>76.900000000000006</v>
+        <v>63.3</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(A27,'GDP per capita'!A:B,2)</f>
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(A27,'Gini index'!A:B,2)</f>
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60.5</v>
+      </c>
+      <c r="E27" t="str">
+        <f>VLOOKUP(A27,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B28">
-        <v>63.3</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <f>VLOOKUP(A28,'GDP per capita'!A:B,2)</f>
-        <v>17000</v>
+        <v>15200</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(A28,'Gini index'!A:B,2)</f>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49.7</v>
+      </c>
+      <c r="E28" t="str">
+        <f>VLOOKUP(A28,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>78.8</v>
       </c>
       <c r="C29">
         <f>VLOOKUP(A29,'GDP per capita'!A:B,2)</f>
-        <v>15200</v>
+        <v>42300</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(A29,'Gini index'!A:B,2)</f>
         <v>49.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f>VLOOKUP(A29,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B30">
-        <v>78.8</v>
+        <v>77.3</v>
       </c>
       <c r="C30">
         <f>VLOOKUP(A30,'GDP per capita'!A:B,2)</f>
-        <v>42300</v>
+        <v>76900</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(A30,'Gini index'!A:B,2)</f>
         <v>49.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f>VLOOKUP(A30,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B31">
-        <v>77.3</v>
+        <v>74.7</v>
       </c>
       <c r="C31">
         <f>VLOOKUP(A31,'GDP per capita'!A:B,2)</f>
-        <v>76900</v>
+        <v>20300</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(A31,'Gini index'!A:B,2)</f>
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E31" t="str">
+        <f>VLOOKUP(A31,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="B32">
-        <v>74.7</v>
+        <v>55.9</v>
       </c>
       <c r="C32">
         <f>VLOOKUP(A32,'GDP per capita'!A:B,2)</f>
-        <v>20300</v>
+        <v>1800</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(A32,'Gini index'!A:B,2)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.5</v>
+      </c>
+      <c r="E32" t="str">
+        <f>VLOOKUP(A32,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="B33">
-        <v>55.9</v>
+        <v>68.2</v>
       </c>
       <c r="C33">
         <f>VLOOKUP(A33,'GDP per capita'!A:B,2)</f>
-        <v>1800</v>
+        <v>5800</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(A33,'Gini index'!A:B,2)</f>
         <v>39.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f>VLOOKUP(A33,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B34">
-        <v>68.2</v>
+        <v>60.9</v>
       </c>
       <c r="C34">
         <f>VLOOKUP(A34,'GDP per capita'!A:B,2)</f>
-        <v>5800</v>
+        <v>800</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(A34,'Gini index'!A:B,2)</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42.4</v>
+      </c>
+      <c r="E34" t="str">
+        <f>VLOOKUP(A34,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B35">
-        <v>60.9</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C35">
         <f>VLOOKUP(A35,'GDP per capita'!A:B,2)</f>
-        <v>800</v>
+        <v>6700</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(A35,'Gini index'!A:B,2)</f>
         <v>42.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f>VLOOKUP(A35,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B36">
-        <v>72.400000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(A36,'GDP per capita'!A:B,2)</f>
-        <v>6700</v>
+        <v>3700</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(A36,'Gini index'!A:B,2)</f>
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+      <c r="E36" t="str">
+        <f>VLOOKUP(A36,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B37">
-        <v>64.900000000000006</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <f>VLOOKUP(A37,'GDP per capita'!A:B,2)</f>
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(A37,'Gini index'!A:B,2)</f>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.6</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP(A37,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C38">
         <f>VLOOKUP(A38,'GDP per capita'!A:B,2)</f>
-        <v>3200</v>
+        <v>46400</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(A38,'Gini index'!A:B,2)</f>
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.1</v>
+      </c>
+      <c r="E38" t="str">
+        <f>VLOOKUP(A38,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>81.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="C39">
         <f>VLOOKUP(A39,'GDP per capita'!A:B,2)</f>
-        <v>46400</v>
+        <v>43800</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(A39,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f>VLOOKUP(A39,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B40">
-        <v>81.3</v>
+        <v>52.8</v>
       </c>
       <c r="C40">
         <f>VLOOKUP(A40,'GDP per capita'!A:B,2)</f>
-        <v>43800</v>
+        <v>700</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(A40,'Gini index'!A:B,2)</f>
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61.3</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP(A40,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B41">
-        <v>52.8</v>
+        <v>50.6</v>
       </c>
       <c r="C41">
         <f>VLOOKUP(A41,'GDP per capita'!A:B,2)</f>
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(A41,'Gini index'!A:B,2)</f>
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43.3</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP(A41,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>50.6</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C42">
         <f>VLOOKUP(A42,'GDP per capita'!A:B,2)</f>
-        <v>2400</v>
+        <v>24100</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(A42,'Gini index'!A:B,2)</f>
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50.5</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B43">
-        <v>78.900000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="C43">
         <f>VLOOKUP(A43,'GDP per capita'!A:B,2)</f>
-        <v>24100</v>
+        <v>15400</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(A43,'Gini index'!A:B,2)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46.5</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B44">
-        <v>75.7</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C44">
         <f>VLOOKUP(A44,'GDP per capita'!A:B,2)</f>
-        <v>15400</v>
+        <v>14100</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(A44,'Gini index'!A:B,2)</f>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53.5</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP(A44,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="B45">
-        <v>75.900000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C45">
         <f>VLOOKUP(A45,'GDP per capita'!A:B,2)</f>
-        <v>14100</v>
+        <v>1500</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(A45,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f>VLOOKUP(A45,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B46">
-        <v>64.599999999999994</v>
+        <v>57.7</v>
       </c>
       <c r="C46">
         <f>VLOOKUP(A46,'GDP per capita'!A:B,2)</f>
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(A46,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f>VLOOKUP(A46,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B47">
-        <v>57.7</v>
+        <v>59.8</v>
       </c>
       <c r="C47">
         <f>VLOOKUP(A47,'GDP per capita'!A:B,2)</f>
-        <v>800</v>
+        <v>6700</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(A47,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f>VLOOKUP(A47,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="B48">
-        <v>59.8</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <f>VLOOKUP(A48,'GDP per capita'!A:B,2)</f>
-        <v>6700</v>
+        <v>12300</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(A48,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f>VLOOKUP(A48,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>78.7</v>
       </c>
       <c r="C49">
         <f>VLOOKUP(A49,'GDP per capita'!A:B,2)</f>
-        <v>12300</v>
+        <v>16400</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(A49,'Gini index'!A:B,2)</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48.5</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP(A49,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="B50">
-        <v>78.7</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <f>VLOOKUP(A50,'GDP per capita'!A:B,2)</f>
-        <v>16400</v>
+        <v>3600</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(A50,'Gini index'!A:B,2)</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41.5</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP(A50,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C51">
         <f>VLOOKUP(A51,'GDP per capita'!A:B,2)</f>
-        <v>3600</v>
+        <v>22800</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(A51,'Gini index'!A:B,2)</f>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP(A51,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>76.099999999999994</v>
+        <v>78.8</v>
       </c>
       <c r="C52">
         <f>VLOOKUP(A52,'GDP per capita'!A:B,2)</f>
-        <v>22800</v>
+        <v>11900</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(A52,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f>VLOOKUP(A52,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="C53">
         <f>VLOOKUP(A53,'GDP per capita'!A:B,2)</f>
-        <v>11900</v>
+        <v>15000</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(A53,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f>VLOOKUP(A53,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="C54">
         <f>VLOOKUP(A54,'GDP per capita'!A:B,2)</f>
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(A54,'Gini index'!A:B,2)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E54" t="str">
+        <f>VLOOKUP(A54,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>78.8</v>
       </c>
       <c r="C55">
         <f>VLOOKUP(A55,'GDP per capita'!A:B,2)</f>
-        <v>35000</v>
+        <v>33200</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(A55,'Gini index'!A:B,2)</f>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f>VLOOKUP(A55,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>78.8</v>
+        <v>79.5</v>
       </c>
       <c r="C56">
         <f>VLOOKUP(A56,'GDP per capita'!A:B,2)</f>
-        <v>33200</v>
+        <v>48000</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(A56,'Gini index'!A:B,2)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.8</v>
+      </c>
+      <c r="E56" t="str">
+        <f>VLOOKUP(A56,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B57">
-        <v>79.5</v>
+        <v>63.6</v>
       </c>
       <c r="C57">
         <f>VLOOKUP(A57,'GDP per capita'!A:B,2)</f>
-        <v>48000</v>
+        <v>3400</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(A57,'Gini index'!A:B,2)</f>
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.9</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP(A57,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>63.6</v>
+        <v>77.2</v>
       </c>
       <c r="C58">
         <f>VLOOKUP(A58,'GDP per capita'!A:B,2)</f>
-        <v>3400</v>
+        <v>11300</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(A58,'Gini index'!A:B,2)</f>
         <v>40.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f>VLOOKUP(A58,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>77.2</v>
+        <v>78.3</v>
       </c>
       <c r="C59">
         <f>VLOOKUP(A59,'GDP per capita'!A:B,2)</f>
-        <v>11300</v>
+        <v>16000</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(A59,'Gini index'!A:B,2)</f>
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47.1</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP(A59,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B60">
-        <v>78.3</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <f>VLOOKUP(A60,'GDP per capita'!A:B,2)</f>
-        <v>16000</v>
+        <v>11100</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(A60,'Gini index'!A:B,2)</f>
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48.5</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP(A60,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B61">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C61">
         <f>VLOOKUP(A61,'GDP per capita'!A:B,2)</f>
-        <v>11100</v>
+        <v>12600</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(A61,'Gini index'!A:B,2)</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.8</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP(A61,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C62">
         <f>VLOOKUP(A62,'GDP per capita'!A:B,2)</f>
-        <v>12600</v>
+        <v>8900</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(A62,'Gini index'!A:B,2)</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP(A62,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="B63">
-        <v>74.900000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C63">
         <f>VLOOKUP(A63,'GDP per capita'!A:B,2)</f>
-        <v>8900</v>
+        <v>38600</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(A63,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="str">
+        <f>VLOOKUP(A63,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B64">
-        <v>64.599999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="C64">
         <f>VLOOKUP(A64,'GDP per capita'!A:B,2)</f>
-        <v>38600</v>
+        <v>1400</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(A64,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="str">
+        <f>VLOOKUP(A64,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="B65">
-        <v>65.2</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C65">
         <f>VLOOKUP(A65,'GDP per capita'!A:B,2)</f>
-        <v>1400</v>
+        <v>29300</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(A65,'Gini index'!A:B,2)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E65" t="str">
+        <f>VLOOKUP(A65,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="B66">
-        <v>76.900000000000006</v>
+        <v>62.6</v>
       </c>
       <c r="C66">
         <f>VLOOKUP(A66,'GDP per capita'!A:B,2)</f>
-        <v>29300</v>
+        <v>1900</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(A66,'Gini index'!A:B,2)</f>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E66" t="str">
+        <f>VLOOKUP(A66,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="B67">
-        <v>62.6</v>
+        <v>80.2</v>
       </c>
       <c r="C67">
         <f>VLOOKUP(A67,'GDP per capita'!A:B,2)</f>
-        <v>1900</v>
+        <v>39200</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(A67,'Gini index'!A:B,2)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E67" t="str">
+        <f>VLOOKUP(A67,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B68">
-        <v>80.2</v>
+        <v>80.5</v>
       </c>
       <c r="C68">
         <f>VLOOKUP(A68,'GDP per capita'!A:B,2)</f>
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(A68,'Gini index'!A:B,2)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.7</v>
+      </c>
+      <c r="E68" t="str">
+        <f>VLOOKUP(A68,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B69">
-        <v>80.5</v>
+        <v>73</v>
       </c>
       <c r="C69">
         <f>VLOOKUP(A69,'GDP per capita'!A:B,2)</f>
-        <v>40000</v>
+        <v>9300</v>
       </c>
       <c r="D69">
         <f>VLOOKUP(A69,'Gini index'!A:B,2)</f>
         <v>22.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="str">
+        <f>VLOOKUP(A69,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="B70">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <f>VLOOKUP(A70,'GDP per capita'!A:B,2)</f>
-        <v>9300</v>
+        <v>42200</v>
       </c>
       <c r="D70">
         <f>VLOOKUP(A70,'Gini index'!A:B,2)</f>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21.5</v>
+      </c>
+      <c r="E70" t="str">
+        <f>VLOOKUP(A70,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>81</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C71">
         <f>VLOOKUP(A71,'GDP per capita'!A:B,2)</f>
-        <v>42200</v>
+        <v>42300</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(A71,'Gini index'!A:B,2)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.2</v>
+      </c>
+      <c r="E71" t="str">
+        <f>VLOOKUP(A71,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>81.900000000000006</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C72">
         <f>VLOOKUP(A72,'GDP per capita'!A:B,2)</f>
-        <v>42300</v>
+        <v>17000</v>
       </c>
       <c r="D72">
         <f>VLOOKUP(A72,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="str">
+        <f>VLOOKUP(A72,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="B73">
-        <v>77.400000000000006</v>
+        <v>52.1</v>
       </c>
       <c r="C73">
         <f>VLOOKUP(A73,'GDP per capita'!A:B,2)</f>
-        <v>17000</v>
+        <v>19100</v>
       </c>
       <c r="D73">
         <f>VLOOKUP(A73,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="str">
+        <f>VLOOKUP(A73,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B74">
-        <v>52.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C74">
         <f>VLOOKUP(A74,'GDP per capita'!A:B,2)</f>
-        <v>19100</v>
+        <v>1700</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(A74,'Gini index'!A:B,2)</f>
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50.2</v>
+      </c>
+      <c r="E74" t="str">
+        <f>VLOOKUP(A74,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>65.099999999999994</v>
+        <v>74.2</v>
       </c>
       <c r="C75">
         <f>VLOOKUP(A75,'GDP per capita'!A:B,2)</f>
@@ -2260,2405 +2709,2989 @@
         <f>VLOOKUP(A75,'Gini index'!A:B,2)</f>
         <v>50.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="str">
+        <f>VLOOKUP(A75,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>74.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C76">
         <f>VLOOKUP(A76,'GDP per capita'!A:B,2)</f>
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(A76,'Gini index'!A:B,2)</f>
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.1</v>
+      </c>
+      <c r="E76" t="str">
+        <f>VLOOKUP(A76,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B77">
-        <v>76.400000000000006</v>
+        <v>80.8</v>
       </c>
       <c r="C77">
         <f>VLOOKUP(A77,'GDP per capita'!A:B,2)</f>
-        <v>10000</v>
+        <v>48100</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(A77,'Gini index'!A:B,2)</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E77" t="str">
+        <f>VLOOKUP(A77,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B78">
-        <v>80.8</v>
+        <v>67</v>
       </c>
       <c r="C78">
         <f>VLOOKUP(A78,'GDP per capita'!A:B,2)</f>
-        <v>48100</v>
+        <v>4400</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(A78,'Gini index'!A:B,2)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42.3</v>
+      </c>
+      <c r="E78" t="str">
+        <f>VLOOKUP(A78,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B79">
-        <v>67</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C79">
         <f>VLOOKUP(A79,'GDP per capita'!A:B,2)</f>
-        <v>4400</v>
+        <v>61700</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(A79,'Gini index'!A:B,2)</f>
         <v>42.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="str">
+        <f>VLOOKUP(A79,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B80">
-        <v>79.599999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="C80">
         <f>VLOOKUP(A80,'GDP per capita'!A:B,2)</f>
-        <v>61700</v>
+        <v>26700</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(A80,'Gini index'!A:B,2)</f>
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E80" t="str">
+        <f>VLOOKUP(A80,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B81">
-        <v>80.7</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C81">
         <f>VLOOKUP(A81,'GDP per capita'!A:B,2)</f>
-        <v>26700</v>
+        <v>37600</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(A81,'Gini index'!A:B,2)</f>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.9</v>
+      </c>
+      <c r="E81" t="str">
+        <f>VLOOKUP(A81,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B82">
-        <v>72.599999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="C82">
         <f>VLOOKUP(A82,'GDP per capita'!A:B,2)</f>
-        <v>37600</v>
+        <v>14100</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(A82,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="str">
+        <f>VLOOKUP(A82,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>74.5</v>
+        <v>76</v>
       </c>
       <c r="C83">
         <f>VLOOKUP(A83,'GDP per capita'!A:B,2)</f>
-        <v>14100</v>
+        <v>30500</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(A83,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="str">
+        <f>VLOOKUP(A83,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B84">
-        <v>76</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C84">
         <f>VLOOKUP(A84,'GDP per capita'!A:B,2)</f>
-        <v>30500</v>
+        <v>7900</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(A84,'Gini index'!A:B,2)</f>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E84" t="str">
+        <f>VLOOKUP(A84,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>72.599999999999994</v>
+        <v>82.6</v>
       </c>
       <c r="C85">
         <f>VLOOKUP(A85,'GDP per capita'!A:B,2)</f>
-        <v>7900</v>
+        <v>52500</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(A85,'Gini index'!A:B,2)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="str">
+        <f>VLOOKUP(A85,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="B86">
-        <v>82.6</v>
+        <v>61</v>
       </c>
       <c r="C86">
         <f>VLOOKUP(A86,'GDP per capita'!A:B,2)</f>
-        <v>52500</v>
+        <v>1300</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(A86,'Gini index'!A:B,2)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.4</v>
+      </c>
+      <c r="E86" t="str">
+        <f>VLOOKUP(A86,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C87">
         <f>VLOOKUP(A87,'GDP per capita'!A:B,2)</f>
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(A87,'Gini index'!A:B,2)</f>
         <v>39.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="str">
+        <f>VLOOKUP(A87,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B88">
-        <v>51</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C88">
         <f>VLOOKUP(A88,'GDP per capita'!A:B,2)</f>
-        <v>1700</v>
+        <v>7900</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(A88,'Gini index'!A:B,2)</f>
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.6</v>
+      </c>
+      <c r="E88" t="str">
+        <f>VLOOKUP(A88,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B89">
-        <v>68.599999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="C89">
         <f>VLOOKUP(A89,'GDP per capita'!A:B,2)</f>
-        <v>7900</v>
+        <v>1800</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(A89,'Gini index'!A:B,2)</f>
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60.8</v>
+      </c>
+      <c r="E89" t="str">
+        <f>VLOOKUP(A89,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B90">
-        <v>64.2</v>
+        <v>71.2</v>
       </c>
       <c r="C90">
         <f>VLOOKUP(A90,'GDP per capita'!A:B,2)</f>
-        <v>1800</v>
+        <v>5300</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(A90,'Gini index'!A:B,2)</f>
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47.1</v>
+      </c>
+      <c r="E90" t="str">
+        <f>VLOOKUP(A90,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B91">
-        <v>71.2</v>
+        <v>83</v>
       </c>
       <c r="C91">
         <f>VLOOKUP(A91,'GDP per capita'!A:B,2)</f>
-        <v>5300</v>
+        <v>58300</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(A91,'Gini index'!A:B,2)</f>
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53.7</v>
+      </c>
+      <c r="E91" t="str">
+        <f>VLOOKUP(A91,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>83</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C92">
         <f>VLOOKUP(A92,'GDP per capita'!A:B,2)</f>
-        <v>58300</v>
+        <v>27500</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(A92,'Gini index'!A:B,2)</f>
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.2</v>
+      </c>
+      <c r="E92" t="str">
+        <f>VLOOKUP(A92,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>76.099999999999994</v>
+        <v>83.1</v>
       </c>
       <c r="C93">
         <f>VLOOKUP(A93,'GDP per capita'!A:B,2)</f>
-        <v>27500</v>
+        <v>49200</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(A93,'Gini index'!A:B,2)</f>
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E93" t="str">
+        <f>VLOOKUP(A93,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="B94">
-        <v>83.1</v>
+        <v>68.8</v>
       </c>
       <c r="C94">
         <f>VLOOKUP(A94,'GDP per capita'!A:B,2)</f>
-        <v>49200</v>
+        <v>6600</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(A94,'Gini index'!A:B,2)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E94" t="str">
+        <f>VLOOKUP(A94,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B95">
-        <v>68.8</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <f>VLOOKUP(A95,'GDP per capita'!A:B,2)</f>
-        <v>6600</v>
+        <v>11700</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(A95,'Gini index'!A:B,2)</f>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E95" t="str">
+        <f>VLOOKUP(A95,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B96">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C96">
         <f>VLOOKUP(A96,'GDP per capita'!A:B,2)</f>
-        <v>11700</v>
+        <v>18100</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(A96,'Gini index'!A:B,2)</f>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.5</v>
+      </c>
+      <c r="E96" t="str">
+        <f>VLOOKUP(A96,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B97">
-        <v>74</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C97">
         <f>VLOOKUP(A97,'GDP per capita'!A:B,2)</f>
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(A97,'Gini index'!A:B,2)</f>
         <v>44.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="str">
+        <f>VLOOKUP(A97,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B98">
-        <v>74.900000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C98">
         <f>VLOOKUP(A98,'GDP per capita'!A:B,2)</f>
-        <v>17900</v>
+        <v>69200</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(A98,'Gini index'!A:B,2)</f>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.3</v>
+      </c>
+      <c r="E98" t="str">
+        <f>VLOOKUP(A98,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B99">
-        <v>80.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="C99">
         <f>VLOOKUP(A99,'GDP per capita'!A:B,2)</f>
-        <v>69200</v>
+        <v>84600</v>
       </c>
       <c r="D99">
         <f>VLOOKUP(A99,'Gini index'!A:B,2)</f>
         <v>31.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="str">
+        <f>VLOOKUP(A99,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>81.3</v>
+        <v>82.5</v>
       </c>
       <c r="C100">
         <f>VLOOKUP(A100,'GDP per capita'!A:B,2)</f>
-        <v>84600</v>
+        <v>35200</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(A100,'Gini index'!A:B,2)</f>
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42.8</v>
+      </c>
+      <c r="E100" t="str">
+        <f>VLOOKUP(A100,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B101">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="C101">
         <f>VLOOKUP(A101,'GDP per capita'!A:B,2)</f>
-        <v>35200</v>
+        <v>36800</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(A101,'Gini index'!A:B,2)</f>
-        <v>42.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.9</v>
+      </c>
+      <c r="E101" t="str">
+        <f>VLOOKUP(A101,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B102">
-        <v>82.3</v>
+        <v>73.7</v>
       </c>
       <c r="C102">
         <f>VLOOKUP(A102,'GDP per capita'!A:B,2)</f>
-        <v>36800</v>
+        <v>9000</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(A102,'Gini index'!A:B,2)</f>
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45.5</v>
+      </c>
+      <c r="E102" t="str">
+        <f>VLOOKUP(A102,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B103">
-        <v>73.7</v>
+        <v>85.3</v>
       </c>
       <c r="C103">
         <f>VLOOKUP(A103,'GDP per capita'!A:B,2)</f>
-        <v>9000</v>
+        <v>41300</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(A103,'Gini index'!A:B,2)</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+      <c r="E103" t="str">
+        <f>VLOOKUP(A103,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>85.3</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C104">
         <f>VLOOKUP(A104,'GDP per capita'!A:B,2)</f>
-        <v>41300</v>
+        <v>49500</v>
       </c>
       <c r="D104">
         <f>VLOOKUP(A104,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="str">
+        <f>VLOOKUP(A104,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B105">
-        <v>81.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="C105">
         <f>VLOOKUP(A105,'GDP per capita'!A:B,2)</f>
-        <v>49500</v>
+        <v>12300</v>
       </c>
       <c r="D105">
         <f>VLOOKUP(A105,'Gini index'!A:B,2)</f>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E105" t="str">
+        <f>VLOOKUP(A105,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B106">
-        <v>74.8</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C106">
         <f>VLOOKUP(A106,'GDP per capita'!A:B,2)</f>
-        <v>12300</v>
+        <v>25100</v>
       </c>
       <c r="D106">
         <f>VLOOKUP(A106,'Gini index'!A:B,2)</f>
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.3</v>
+      </c>
+      <c r="E106" t="str">
+        <f>VLOOKUP(A106,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B107">
-        <v>71.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="C107">
         <f>VLOOKUP(A107,'GDP per capita'!A:B,2)</f>
-        <v>25100</v>
+        <v>3400</v>
       </c>
       <c r="D107">
         <f>VLOOKUP(A107,'Gini index'!A:B,2)</f>
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42.5</v>
+      </c>
+      <c r="E107" t="str">
+        <f>VLOOKUP(A107,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B108">
-        <v>64.3</v>
+        <v>66.5</v>
       </c>
       <c r="C108">
         <f>VLOOKUP(A108,'GDP per capita'!A:B,2)</f>
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="D108">
         <f>VLOOKUP(A108,'Gini index'!A:B,2)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="str">
+        <f>VLOOKUP(A108,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B109">
-        <v>66.5</v>
+        <v>70.7</v>
       </c>
       <c r="C109">
         <f>VLOOKUP(A109,'GDP per capita'!A:B,2)</f>
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D109">
         <f>VLOOKUP(A109,'Gini index'!A:B,2)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="str">
+        <f>VLOOKUP(A109,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>70.7</v>
+        <v>82.5</v>
       </c>
       <c r="C110">
         <f>VLOOKUP(A110,'GDP per capita'!A:B,2)</f>
-        <v>1700</v>
+        <v>37700</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(A110,'Gini index'!A:B,2)</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.1</v>
+      </c>
+      <c r="E110" t="str">
+        <f>VLOOKUP(A110,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B111">
-        <v>82.5</v>
+        <v>78.2</v>
       </c>
       <c r="C111">
         <f>VLOOKUP(A111,'GDP per capita'!A:B,2)</f>
-        <v>37700</v>
+        <v>71900</v>
       </c>
       <c r="D111">
         <f>VLOOKUP(A111,'Gini index'!A:B,2)</f>
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E111" t="str">
+        <f>VLOOKUP(A111,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B112">
-        <v>78.2</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C112">
         <f>VLOOKUP(A112,'GDP per capita'!A:B,2)</f>
-        <v>71900</v>
+        <v>3500</v>
       </c>
       <c r="D112">
         <f>VLOOKUP(A112,'Gini index'!A:B,2)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.4</v>
+      </c>
+      <c r="E112" t="str">
+        <f>VLOOKUP(A112,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B113">
-        <v>70.900000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C113">
         <f>VLOOKUP(A113,'GDP per capita'!A:B,2)</f>
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="D113">
         <f>VLOOKUP(A113,'Gini index'!A:B,2)</f>
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E113" t="str">
+        <f>VLOOKUP(A113,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B114">
-        <v>64.599999999999994</v>
+        <v>74.7</v>
       </c>
       <c r="C114">
         <f>VLOOKUP(A114,'GDP per capita'!A:B,2)</f>
-        <v>5700</v>
+        <v>25700</v>
       </c>
       <c r="D114">
         <f>VLOOKUP(A114,'Gini index'!A:B,2)</f>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.5</v>
+      </c>
+      <c r="E114" t="str">
+        <f>VLOOKUP(A114,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B115">
-        <v>74.7</v>
+        <v>77.8</v>
       </c>
       <c r="C115">
         <f>VLOOKUP(A115,'GDP per capita'!A:B,2)</f>
-        <v>25700</v>
+        <v>18500</v>
       </c>
       <c r="D115">
         <f>VLOOKUP(A115,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" t="str">
+        <f>VLOOKUP(A115,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="B116">
-        <v>77.8</v>
+        <v>53</v>
       </c>
       <c r="C116">
         <f>VLOOKUP(A116,'GDP per capita'!A:B,2)</f>
-        <v>18500</v>
+        <v>3600</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(A116,'Gini index'!A:B,2)</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63.2</v>
+      </c>
+      <c r="E116" t="str">
+        <f>VLOOKUP(A116,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B117">
-        <v>53</v>
+        <v>63.3</v>
       </c>
       <c r="C117">
         <f>VLOOKUP(A117,'GDP per capita'!A:B,2)</f>
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="D117">
         <f>VLOOKUP(A117,'Gini index'!A:B,2)</f>
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E117" t="str">
+        <f>VLOOKUP(A117,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="B118">
-        <v>63.3</v>
+        <v>76.7</v>
       </c>
       <c r="C118">
         <f>VLOOKUP(A118,'GDP per capita'!A:B,2)</f>
-        <v>900</v>
+        <v>8700</v>
       </c>
       <c r="D118">
         <f>VLOOKUP(A118,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" t="str">
+        <f>VLOOKUP(A118,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B119">
-        <v>76.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C119">
         <f>VLOOKUP(A119,'GDP per capita'!A:B,2)</f>
-        <v>8700</v>
+        <v>139100</v>
       </c>
       <c r="D119">
         <f>VLOOKUP(A119,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" t="str">
+        <f>VLOOKUP(A119,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B120">
-        <v>81.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="C120">
         <f>VLOOKUP(A120,'GDP per capita'!A:B,2)</f>
-        <v>139100</v>
+        <v>30000</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(A120,'Gini index'!A:B,2)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+      <c r="E120" t="str">
+        <f>VLOOKUP(A120,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B121">
-        <v>75</v>
+        <v>82.3</v>
       </c>
       <c r="C121">
         <f>VLOOKUP(A121,'GDP per capita'!A:B,2)</f>
-        <v>30000</v>
+        <v>104000</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(A121,'Gini index'!A:B,2)</f>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.4</v>
+      </c>
+      <c r="E121" t="str">
+        <f>VLOOKUP(A121,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B122">
-        <v>82.3</v>
+        <v>84.6</v>
       </c>
       <c r="C122">
         <f>VLOOKUP(A122,'GDP per capita'!A:B,2)</f>
-        <v>104000</v>
+        <v>95100</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(A122,'Gini index'!A:B,2)</f>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E122" t="str">
+        <f>VLOOKUP(A122,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B123">
-        <v>84.6</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C123">
         <f>VLOOKUP(A123,'GDP per capita'!A:B,2)</f>
-        <v>95100</v>
+        <v>14600</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(A123,'Gini index'!A:B,2)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E123" t="str">
+        <f>VLOOKUP(A123,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B124">
-        <v>76.400000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="C124">
         <f>VLOOKUP(A124,'GDP per capita'!A:B,2)</f>
-        <v>14600</v>
+        <v>1500</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(A124,'Gini index'!A:B,2)</f>
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E124" t="str">
+        <f>VLOOKUP(A124,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B125">
-        <v>66.3</v>
+        <v>61.7</v>
       </c>
       <c r="C125">
         <f>VLOOKUP(A125,'GDP per capita'!A:B,2)</f>
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(A125,'Gini index'!A:B,2)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46.1</v>
+      </c>
+      <c r="E125" t="str">
+        <f>VLOOKUP(A125,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B126">
-        <v>61.7</v>
+        <v>75.2</v>
       </c>
       <c r="C126">
         <f>VLOOKUP(A126,'GDP per capita'!A:B,2)</f>
-        <v>1100</v>
+        <v>27300</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(A126,'Gini index'!A:B,2)</f>
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46.2</v>
+      </c>
+      <c r="E126" t="str">
+        <f>VLOOKUP(A126,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B127">
-        <v>75.2</v>
+        <v>75.8</v>
       </c>
       <c r="C127">
         <f>VLOOKUP(A127,'GDP per capita'!A:B,2)</f>
-        <v>27300</v>
+        <v>15500</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(A127,'Gini index'!A:B,2)</f>
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.4</v>
+      </c>
+      <c r="E127" t="str">
+        <f>VLOOKUP(A127,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B128">
-        <v>75.8</v>
+        <v>60.3</v>
       </c>
       <c r="C128">
         <f>VLOOKUP(A128,'GDP per capita'!A:B,2)</f>
-        <v>15500</v>
+        <v>2300</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(A128,'Gini index'!A:B,2)</f>
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.1</v>
+      </c>
+      <c r="E128" t="str">
+        <f>VLOOKUP(A128,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="B129">
-        <v>60.3</v>
+        <v>80.5</v>
       </c>
       <c r="C129">
         <f>VLOOKUP(A129,'GDP per capita'!A:B,2)</f>
-        <v>2300</v>
+        <v>39900</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(A129,'Gini index'!A:B,2)</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.1</v>
+      </c>
+      <c r="E129" t="str">
+        <f>VLOOKUP(A129,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B130">
-        <v>80.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C130">
         <f>VLOOKUP(A130,'GDP per capita'!A:B,2)</f>
-        <v>39900</v>
+        <v>3300</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(A130,'Gini index'!A:B,2)</f>
         <v>28.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="str">
+        <f>VLOOKUP(A130,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="B131">
-        <v>73.400000000000006</v>
+        <v>63.4</v>
       </c>
       <c r="C131">
         <f>VLOOKUP(A131,'GDP per capita'!A:B,2)</f>
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(A131,'Gini index'!A:B,2)</f>
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E131" t="str">
+        <f>VLOOKUP(A131,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B132">
-        <v>63.4</v>
+        <v>75.8</v>
       </c>
       <c r="C132">
         <f>VLOOKUP(A132,'GDP per capita'!A:B,2)</f>
-        <v>4300</v>
+        <v>20400</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(A132,'Gini index'!A:B,2)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.9</v>
+      </c>
+      <c r="E132" t="str">
+        <f>VLOOKUP(A132,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B133">
-        <v>75.8</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C133">
         <f>VLOOKUP(A133,'GDP per capita'!A:B,2)</f>
-        <v>20400</v>
+        <v>18900</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(A133,'Gini index'!A:B,2)</f>
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48.2</v>
+      </c>
+      <c r="E133" t="str">
+        <f>VLOOKUP(A133,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B134">
-        <v>76.099999999999994</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C134">
         <f>VLOOKUP(A134,'GDP per capita'!A:B,2)</f>
-        <v>18900</v>
+        <v>3200</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(A134,'Gini index'!A:B,2)</f>
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61.1</v>
+      </c>
+      <c r="E134" t="str">
+        <f>VLOOKUP(A134,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B135">
-        <v>73.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="C135">
         <f>VLOOKUP(A135,'GDP per capita'!A:B,2)</f>
-        <v>3200</v>
+        <v>5300</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(A135,'Gini index'!A:B,2)</f>
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.8</v>
+      </c>
+      <c r="E135" t="str">
+        <f>VLOOKUP(A135,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B136">
-        <v>71</v>
+        <v>89.4</v>
       </c>
       <c r="C136">
         <f>VLOOKUP(A136,'GDP per capita'!A:B,2)</f>
-        <v>5300</v>
+        <v>115700</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(A136,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="str">
+        <f>VLOOKUP(A136,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B137">
-        <v>89.4</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C137">
         <f>VLOOKUP(A137,'GDP per capita'!A:B,2)</f>
-        <v>115700</v>
+        <v>12300</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(A137,'Gini index'!A:B,2)</f>
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.5</v>
+      </c>
+      <c r="E137" t="str">
+        <f>VLOOKUP(A137,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B138">
-        <v>69.900000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C138">
         <f>VLOOKUP(A138,'GDP per capita'!A:B,2)</f>
-        <v>12300</v>
+        <v>8500</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(A138,'Gini index'!A:B,2)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.2</v>
+      </c>
+      <c r="E138" t="str">
+        <f>VLOOKUP(A138,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B139">
-        <v>74.599999999999994</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="C139">
         <f>VLOOKUP(A139,'GDP per capita'!A:B,2)</f>
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(A139,'Gini index'!A:B,2)</f>
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.9</v>
+      </c>
+      <c r="E139" t="str">
+        <f>VLOOKUP(A139,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="B140">
-        <v>77.099999999999994</v>
+        <v>53.7</v>
       </c>
       <c r="C140">
         <f>VLOOKUP(A140,'GDP per capita'!A:B,2)</f>
-        <v>8300</v>
+        <v>1200</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(A140,'Gini index'!A:B,2)</f>
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45.6</v>
+      </c>
+      <c r="E140" t="str">
+        <f>VLOOKUP(A140,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B141">
-        <v>53.7</v>
+        <v>64</v>
       </c>
       <c r="C141">
         <f>VLOOKUP(A141,'GDP per capita'!A:B,2)</f>
-        <v>1200</v>
+        <v>11300</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(A141,'Gini index'!A:B,2)</f>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59.7</v>
+      </c>
+      <c r="E141" t="str">
+        <f>VLOOKUP(A141,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B142">
-        <v>64</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C142">
         <f>VLOOKUP(A142,'GDP per capita'!A:B,2)</f>
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(A142,'Gini index'!A:B,2)</f>
         <v>59.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" t="str">
+        <f>VLOOKUP(A142,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B143">
-        <v>67.400000000000006</v>
+        <v>71</v>
       </c>
       <c r="C143">
         <f>VLOOKUP(A143,'GDP per capita'!A:B,2)</f>
-        <v>11600</v>
+        <v>2500</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(A143,'Gini index'!A:B,2)</f>
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E143" t="str">
+        <f>VLOOKUP(A143,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B144">
-        <v>71</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="C144">
         <f>VLOOKUP(A144,'GDP per capita'!A:B,2)</f>
-        <v>2500</v>
+        <v>51000</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(A144,'Gini index'!A:B,2)</f>
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.3</v>
+      </c>
+      <c r="E144" t="str">
+        <f>VLOOKUP(A144,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B145">
-        <v>81.400000000000006</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C145">
         <f>VLOOKUP(A145,'GDP per capita'!A:B,2)</f>
-        <v>51000</v>
+        <v>31100</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(A145,'Gini index'!A:B,2)</f>
         <v>30.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="str">
+        <f>VLOOKUP(A145,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B146">
-        <v>77.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="C146">
         <f>VLOOKUP(A146,'GDP per capita'!A:B,2)</f>
-        <v>31100</v>
+        <v>37300</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(A146,'Gini index'!A:B,2)</f>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E146" t="str">
+        <f>VLOOKUP(A146,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B147">
-        <v>81.3</v>
+        <v>73.5</v>
       </c>
       <c r="C147">
         <f>VLOOKUP(A147,'GDP per capita'!A:B,2)</f>
-        <v>37300</v>
+        <v>5500</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(A147,'Gini index'!A:B,2)</f>
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47.1</v>
+      </c>
+      <c r="E147" t="str">
+        <f>VLOOKUP(A147,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="B148">
-        <v>73.5</v>
+        <v>55.9</v>
       </c>
       <c r="C148">
         <f>VLOOKUP(A148,'GDP per capita'!A:B,2)</f>
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(A148,'Gini index'!A:B,2)</f>
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E148" t="str">
+        <f>VLOOKUP(A148,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B149">
-        <v>55.9</v>
+        <v>53.8</v>
       </c>
       <c r="C149">
         <f>VLOOKUP(A149,'GDP per capita'!A:B,2)</f>
-        <v>1100</v>
+        <v>5900</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(A149,'Gini index'!A:B,2)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48.8</v>
+      </c>
+      <c r="E149" t="str">
+        <f>VLOOKUP(A149,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B150">
-        <v>53.8</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C150">
         <f>VLOOKUP(A150,'GDP per capita'!A:B,2)</f>
-        <v>5900</v>
+        <v>13300</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(A150,'Gini index'!A:B,2)</f>
         <v>48.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" t="str">
+        <f>VLOOKUP(A150,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B151">
-        <v>75.400000000000006</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C151">
         <f>VLOOKUP(A151,'GDP per capita'!A:B,2)</f>
-        <v>13300</v>
+        <v>69200</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(A151,'Gini index'!A:B,2)</f>
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.8</v>
+      </c>
+      <c r="E151" t="str">
+        <f>VLOOKUP(A151,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B152">
-        <v>81.900000000000006</v>
+        <v>75.7</v>
       </c>
       <c r="C152">
         <f>VLOOKUP(A152,'GDP per capita'!A:B,2)</f>
-        <v>69200</v>
+        <v>46700</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(A152,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" t="str">
+        <f>VLOOKUP(A152,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="B153">
-        <v>75.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C153">
         <f>VLOOKUP(A153,'GDP per capita'!A:B,2)</f>
-        <v>46700</v>
+        <v>5100</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(A153,'Gini index'!A:B,2)</f>
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.7</v>
+      </c>
+      <c r="E153" t="str">
+        <f>VLOOKUP(A153,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B154">
-        <v>68.099999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C154">
         <f>VLOOKUP(A154,'GDP per capita'!A:B,2)</f>
-        <v>5100</v>
+        <v>15400</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(A154,'Gini index'!A:B,2)</f>
         <v>30.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" t="str">
+        <f>VLOOKUP(A154,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B155">
-        <v>73.400000000000006</v>
+        <v>78.8</v>
       </c>
       <c r="C155">
         <f>VLOOKUP(A155,'GDP per capita'!A:B,2)</f>
-        <v>15400</v>
+        <v>23000</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(A155,'Gini index'!A:B,2)</f>
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50.7</v>
+      </c>
+      <c r="E155" t="str">
+        <f>VLOOKUP(A155,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="B156">
-        <v>78.8</v>
+        <v>67.3</v>
       </c>
       <c r="C156">
         <f>VLOOKUP(A156,'GDP per capita'!A:B,2)</f>
-        <v>23000</v>
+        <v>3500</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(A156,'Gini index'!A:B,2)</f>
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50.9</v>
+      </c>
+      <c r="E156" t="str">
+        <f>VLOOKUP(A156,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="B157">
-        <v>67.3</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C157">
         <f>VLOOKUP(A157,'GDP per capita'!A:B,2)</f>
-        <v>3500</v>
+        <v>9400</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(A157,'Gini index'!A:B,2)</f>
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51.7</v>
+      </c>
+      <c r="E157" t="str">
+        <f>VLOOKUP(A157,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B158">
-        <v>77.400000000000006</v>
+        <v>74</v>
       </c>
       <c r="C158">
         <f>VLOOKUP(A158,'GDP per capita'!A:B,2)</f>
-        <v>9400</v>
+        <v>12900</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(A158,'Gini index'!A:B,2)</f>
-        <v>51.7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45.3</v>
+      </c>
+      <c r="E158" t="str">
+        <f>VLOOKUP(A158,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B159">
-        <v>74</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="C159">
         <f>VLOOKUP(A159,'GDP per capita'!A:B,2)</f>
-        <v>12900</v>
+        <v>7700</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(A159,'Gini index'!A:B,2)</f>
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.4</v>
+      </c>
+      <c r="E159" t="str">
+        <f>VLOOKUP(A159,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="B160">
-        <v>69.400000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="C160">
         <f>VLOOKUP(A160,'GDP per capita'!A:B,2)</f>
-        <v>7700</v>
+        <v>27800</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(A160,'Gini index'!A:B,2)</f>
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.8</v>
+      </c>
+      <c r="E160" t="str">
+        <f>VLOOKUP(A160,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B161">
-        <v>77.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C161">
         <f>VLOOKUP(A161,'GDP per capita'!A:B,2)</f>
-        <v>27800</v>
+        <v>28900</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(A161,'Gini index'!A:B,2)</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.9</v>
+      </c>
+      <c r="E161" t="str">
+        <f>VLOOKUP(A161,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B162">
-        <v>79.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C162">
         <f>VLOOKUP(A162,'GDP per capita'!A:B,2)</f>
-        <v>28900</v>
+        <v>38400</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(A162,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" t="str">
+        <f>VLOOKUP(A162,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B163">
-        <v>80.900000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C163">
         <f>VLOOKUP(A163,'GDP per capita'!A:B,2)</f>
-        <v>38400</v>
+        <v>127700</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(A163,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" t="str">
+        <f>VLOOKUP(A163,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B164">
-        <v>78.900000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C164">
         <f>VLOOKUP(A164,'GDP per capita'!A:B,2)</f>
-        <v>127700</v>
+        <v>22300</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(A164,'Gini index'!A:B,2)</f>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.3</v>
+      </c>
+      <c r="E164" t="str">
+        <f>VLOOKUP(A164,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B165">
-        <v>75.400000000000006</v>
+        <v>71</v>
       </c>
       <c r="C165">
         <f>VLOOKUP(A165,'GDP per capita'!A:B,2)</f>
-        <v>22300</v>
+        <v>26500</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(A165,'Gini index'!A:B,2)</f>
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41.2</v>
+      </c>
+      <c r="E165" t="str">
+        <f>VLOOKUP(A165,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B166">
-        <v>71</v>
+        <v>64.3</v>
       </c>
       <c r="C166">
         <f>VLOOKUP(A166,'GDP per capita'!A:B,2)</f>
-        <v>26500</v>
+        <v>2000</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(A166,'Gini index'!A:B,2)</f>
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46.8</v>
+      </c>
+      <c r="E166" t="str">
+        <f>VLOOKUP(A166,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="B167">
-        <v>64.3</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C167">
         <f>VLOOKUP(A167,'GDP per capita'!A:B,2)</f>
-        <v>2000</v>
+        <v>7800</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(A167,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" t="str">
+        <f>VLOOKUP(A167,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B168">
-        <v>79.599999999999994</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C168">
         <f>VLOOKUP(A168,'GDP per capita'!A:B,2)</f>
-        <v>7800</v>
+        <v>26100</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(A168,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" t="str">
+        <f>VLOOKUP(A168,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B169">
-        <v>75.900000000000006</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C169">
         <f>VLOOKUP(A169,'GDP per capita'!A:B,2)</f>
-        <v>26100</v>
+        <v>11800</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(A169,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" t="str">
+        <f>VLOOKUP(A169,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B170">
-        <v>77.900000000000006</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C170">
         <f>VLOOKUP(A170,'GDP per capita'!A:B,2)</f>
-        <v>11800</v>
+        <v>34900</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(A170,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" t="str">
+        <f>VLOOKUP(A170,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B171">
-        <v>80.599999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="C171">
         <f>VLOOKUP(A171,'GDP per capita'!A:B,2)</f>
-        <v>34900</v>
+        <v>11300</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(A171,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" t="str">
+        <f>VLOOKUP(A171,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B172">
-        <v>75.5</v>
+        <v>74</v>
       </c>
       <c r="C172">
         <f>VLOOKUP(A172,'GDP per capita'!A:B,2)</f>
-        <v>11300</v>
+        <v>5500</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(A172,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" t="str">
+        <f>VLOOKUP(A172,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B173">
-        <v>74</v>
+        <v>83.3</v>
       </c>
       <c r="C173">
         <f>VLOOKUP(A173,'GDP per capita'!A:B,2)</f>
-        <v>5500</v>
+        <v>59500</v>
       </c>
       <c r="D173">
         <f>VLOOKUP(A173,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" t="str">
+        <f>VLOOKUP(A173,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="B174">
-        <v>83.3</v>
+        <v>65.3</v>
       </c>
       <c r="C174">
         <f>VLOOKUP(A174,'GDP per capita'!A:B,2)</f>
-        <v>59500</v>
+        <v>3100</v>
       </c>
       <c r="D174">
         <f>VLOOKUP(A174,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" t="str">
+        <f>VLOOKUP(A174,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="B175">
-        <v>65.3</v>
+        <v>75.5</v>
       </c>
       <c r="C175">
         <f>VLOOKUP(A175,'GDP per capita'!A:B,2)</f>
-        <v>3100</v>
+        <v>55200</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(A175,'Gini index'!A:B,2)</f>
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45.9</v>
+      </c>
+      <c r="E175" t="str">
+        <f>VLOOKUP(A175,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B176">
-        <v>75.5</v>
+        <v>62.1</v>
       </c>
       <c r="C176">
         <f>VLOOKUP(A176,'GDP per capita'!A:B,2)</f>
-        <v>55200</v>
+        <v>2600</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(A176,'Gini index'!A:B,2)</f>
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E176" t="str">
+        <f>VLOOKUP(A176,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="B177">
-        <v>62.1</v>
+        <v>75.7</v>
       </c>
       <c r="C177">
         <f>VLOOKUP(A177,'GDP per capita'!A:B,2)</f>
-        <v>2600</v>
+        <v>14500</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(A177,'Gini index'!A:B,2)</f>
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E177" t="str">
+        <f>VLOOKUP(A177,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B178">
-        <v>75.7</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C178">
         <f>VLOOKUP(A178,'GDP per capita'!A:B,2)</f>
-        <v>14500</v>
+        <v>27600</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(A178,'Gini index'!A:B,2)</f>
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" t="str">
+        <f>VLOOKUP(A178,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="B179">
-        <v>74.900000000000006</v>
+        <v>58.6</v>
       </c>
       <c r="C179">
         <f>VLOOKUP(A179,'GDP per capita'!A:B,2)</f>
-        <v>27600</v>
+        <v>1700</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(A179,'Gini index'!A:B,2)</f>
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E179" t="str">
+        <f>VLOOKUP(A179,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="B180">
-        <v>58.6</v>
+        <v>85.2</v>
       </c>
       <c r="C180">
         <f>VLOOKUP(A180,'GDP per capita'!A:B,2)</f>
-        <v>1700</v>
+        <v>87900</v>
       </c>
       <c r="D180">
         <f>VLOOKUP(A180,'Gini index'!A:B,2)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45.8</v>
+      </c>
+      <c r="E180" t="str">
+        <f>VLOOKUP(A180,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B181">
-        <v>85.2</v>
+        <v>78.3</v>
       </c>
       <c r="C181">
         <f>VLOOKUP(A181,'GDP per capita'!A:B,2)</f>
-        <v>87900</v>
+        <v>66800</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(A181,'Gini index'!A:B,2)</f>
         <v>45.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" t="str">
+        <f>VLOOKUP(A181,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B182">
-        <v>78.3</v>
+        <v>77.3</v>
       </c>
       <c r="C182">
         <f>VLOOKUP(A182,'GDP per capita'!A:B,2)</f>
-        <v>66800</v>
+        <v>31300</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(A182,'Gini index'!A:B,2)</f>
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.7</v>
+      </c>
+      <c r="E182" t="str">
+        <f>VLOOKUP(A182,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B183">
-        <v>77.3</v>
+        <v>78.3</v>
       </c>
       <c r="C183">
         <f>VLOOKUP(A183,'GDP per capita'!A:B,2)</f>
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(A183,'Gini index'!A:B,2)</f>
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.5</v>
+      </c>
+      <c r="E183" t="str">
+        <f>VLOOKUP(A183,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B184">
-        <v>78.3</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C184">
         <f>VLOOKUP(A184,'GDP per capita'!A:B,2)</f>
-        <v>32100</v>
+        <v>2000</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(A184,'Gini index'!A:B,2)</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" t="str">
+        <f>VLOOKUP(A184,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="B185">
-        <v>75.599999999999994</v>
+        <v>52.8</v>
       </c>
       <c r="C185">
         <f>VLOOKUP(A185,'GDP per capita'!A:B,2)</f>
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(A185,'Gini index'!A:B,2)</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" t="str">
+        <f>VLOOKUP(A185,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B186">
-        <v>52.8</v>
+        <v>63.8</v>
       </c>
       <c r="C186">
         <f>VLOOKUP(A186,'GDP per capita'!A:B,2)</f>
-        <v>400</v>
+        <v>13200</v>
       </c>
       <c r="D186">
         <f>VLOOKUP(A186,'Gini index'!A:B,2)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+      <c r="E186" t="str">
+        <f>VLOOKUP(A186,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="B187">
-        <v>63.8</v>
+        <v>81.8</v>
       </c>
       <c r="C187">
         <f>VLOOKUP(A187,'GDP per capita'!A:B,2)</f>
-        <v>13200</v>
+        <v>36400</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(A187,'Gini index'!A:B,2)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.9</v>
+      </c>
+      <c r="E187" t="str">
+        <f>VLOOKUP(A187,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B188">
-        <v>81.8</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C188">
         <f>VLOOKUP(A188,'GDP per capita'!A:B,2)</f>
-        <v>36400</v>
+        <v>12300</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(A188,'Gini index'!A:B,2)</f>
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="E188" t="str">
+        <f>VLOOKUP(A188,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B189">
-        <v>76.900000000000006</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C189">
         <f>VLOOKUP(A189,'GDP per capita'!A:B,2)</f>
-        <v>12300</v>
+        <v>4400</v>
       </c>
       <c r="D189">
         <f>VLOOKUP(A189,'Gini index'!A:B,2)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" t="str">
+        <f>VLOOKUP(A189,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B190">
-        <v>64.400000000000006</v>
+        <v>72.5</v>
       </c>
       <c r="C190">
         <f>VLOOKUP(A190,'GDP per capita'!A:B,2)</f>
-        <v>4400</v>
+        <v>14000</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(A190,'Gini index'!A:B,2)</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" t="str">
+        <f>VLOOKUP(A190,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="B191">
-        <v>72.5</v>
+        <v>52.1</v>
       </c>
       <c r="C191">
         <f>VLOOKUP(A191,'GDP per capita'!A:B,2)</f>
-        <v>14000</v>
+        <v>9800</v>
       </c>
       <c r="D191">
         <f>VLOOKUP(A191,'Gini index'!A:B,2)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50.4</v>
+      </c>
+      <c r="E191" t="str">
+        <f>VLOOKUP(A191,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="B192">
-        <v>52.1</v>
+        <v>82.1</v>
       </c>
       <c r="C192">
         <f>VLOOKUP(A192,'GDP per capita'!A:B,2)</f>
-        <v>9800</v>
+        <v>49800</v>
       </c>
       <c r="D192">
         <f>VLOOKUP(A192,'Gini index'!A:B,2)</f>
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.9</v>
+      </c>
+      <c r="E192" t="str">
+        <f>VLOOKUP(A192,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B193">
-        <v>82.1</v>
+        <v>82.6</v>
       </c>
       <c r="C193">
         <f>VLOOKUP(A193,'GDP per capita'!A:B,2)</f>
-        <v>49800</v>
+        <v>59600</v>
       </c>
       <c r="D193">
         <f>VLOOKUP(A193,'Gini index'!A:B,2)</f>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.5</v>
+      </c>
+      <c r="E193" t="str">
+        <f>VLOOKUP(A193,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B194">
-        <v>82.6</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C194">
         <f>VLOOKUP(A194,'GDP per capita'!A:B,2)</f>
-        <v>59600</v>
+        <v>2900</v>
       </c>
       <c r="D194">
         <f>VLOOKUP(A194,'Gini index'!A:B,2)</f>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" t="str">
+        <f>VLOOKUP(A194,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B195">
-        <v>75.099999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="C195">
         <f>VLOOKUP(A195,'GDP per capita'!A:B,2)</f>
-        <v>2900</v>
+        <v>48100</v>
       </c>
       <c r="D195">
         <f>VLOOKUP(A195,'Gini index'!A:B,2)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.6</v>
+      </c>
+      <c r="E195" t="str">
+        <f>VLOOKUP(A195,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B196">
-        <v>80.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C196">
         <f>VLOOKUP(A196,'GDP per capita'!A:B,2)</f>
-        <v>48100</v>
+        <v>3000</v>
       </c>
       <c r="D196">
         <f>VLOOKUP(A196,'Gini index'!A:B,2)</f>
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.6</v>
+      </c>
+      <c r="E196" t="str">
+        <f>VLOOKUP(A196,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>68.099999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="C197">
         <f>VLOOKUP(A197,'GDP per capita'!A:B,2)</f>
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="D197">
         <f>VLOOKUP(A197,'Gini index'!A:B,2)</f>
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.6</v>
+      </c>
+      <c r="E197" t="str">
+        <f>VLOOKUP(A197,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="B198">
-        <v>62.6</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C198">
         <f>VLOOKUP(A198,'GDP per capita'!A:B,2)</f>
-        <v>3100</v>
+        <v>16900</v>
       </c>
       <c r="D198">
         <f>VLOOKUP(A198,'Gini index'!A:B,2)</f>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.5</v>
+      </c>
+      <c r="E198" t="str">
+        <f>VLOOKUP(A198,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B199">
-        <v>74.900000000000006</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C199">
         <f>VLOOKUP(A199,'GDP per capita'!A:B,2)</f>
-        <v>16900</v>
+        <v>4200</v>
       </c>
       <c r="D199">
         <f>VLOOKUP(A199,'Gini index'!A:B,2)</f>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.9</v>
+      </c>
+      <c r="E199" t="str">
+        <f>VLOOKUP(A199,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B200">
-        <v>68.400000000000006</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C200">
         <f>VLOOKUP(A200,'GDP per capita'!A:B,2)</f>
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="D200">
         <f>VLOOKUP(A200,'Gini index'!A:B,2)</f>
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E200" t="str">
+        <f>VLOOKUP(A200,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B201">
-        <v>65.400000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C201">
         <f>VLOOKUP(A201,'GDP per capita'!A:B,2)</f>
-        <v>1600</v>
+        <v>5400</v>
       </c>
       <c r="D201">
         <f>VLOOKUP(A201,'Gini index'!A:B,2)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" t="str">
+        <f>VLOOKUP(A201,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B202">
-        <v>76.400000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C202">
         <f>VLOOKUP(A202,'GDP per capita'!A:B,2)</f>
-        <v>5400</v>
+        <v>31900</v>
       </c>
       <c r="D202">
         <f>VLOOKUP(A202,'Gini index'!A:B,2)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" t="str">
+        <f>VLOOKUP(A202,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B203">
-        <v>73.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="C203">
         <f>VLOOKUP(A203,'GDP per capita'!A:B,2)</f>
-        <v>31900</v>
+        <v>11600</v>
       </c>
       <c r="D203">
         <f>VLOOKUP(A203,'Gini index'!A:B,2)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E203" t="str">
+        <f>VLOOKUP(A203,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B204">
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="C204">
         <f>VLOOKUP(A204,'GDP per capita'!A:B,2)</f>
-        <v>11600</v>
+        <v>24900</v>
       </c>
       <c r="D204">
         <f>VLOOKUP(A204,'Gini index'!A:B,2)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E204" t="str">
+        <f>VLOOKUP(A204,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B205">
-        <v>75</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C205">
         <f>VLOOKUP(A205,'GDP per capita'!A:B,2)</f>
-        <v>24900</v>
+        <v>17500</v>
       </c>
       <c r="D205">
         <f>VLOOKUP(A205,'Gini index'!A:B,2)</f>
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E205" t="str">
+        <f>VLOOKUP(A205,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="B206">
-        <v>70.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="C206">
         <f>VLOOKUP(A206,'GDP per capita'!A:B,2)</f>
-        <v>17500</v>
+        <v>29100</v>
       </c>
       <c r="D206">
         <f>VLOOKUP(A206,'Gini index'!A:B,2)</f>
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" t="str">
+        <f>VLOOKUP(A206,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B207">
-        <v>80</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C207">
         <f>VLOOKUP(A207,'GDP per capita'!A:B,2)</f>
-        <v>29100</v>
+        <v>3500</v>
       </c>
       <c r="D207">
         <f>VLOOKUP(A207,'Gini index'!A:B,2)</f>
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" t="str">
+        <f>VLOOKUP(A207,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B208">
-        <v>66.900000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="C208">
         <f>VLOOKUP(A208,'GDP per capita'!A:B,2)</f>
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="D208">
         <f>VLOOKUP(A208,'Gini index'!A:B,2)</f>
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.5</v>
+      </c>
+      <c r="E208" t="str">
+        <f>VLOOKUP(A208,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="B209">
-        <v>55.9</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C209">
         <f>VLOOKUP(A209,'GDP per capita'!A:B,2)</f>
-        <v>2100</v>
+        <v>8300</v>
       </c>
       <c r="D209">
         <f>VLOOKUP(A209,'Gini index'!A:B,2)</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.6</v>
+      </c>
+      <c r="E209" t="str">
+        <f>VLOOKUP(A209,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B210">
-        <v>72.099999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="C210">
         <f>VLOOKUP(A210,'GDP per capita'!A:B,2)</f>
-        <v>8300</v>
+        <v>67900</v>
       </c>
       <c r="D210">
         <f>VLOOKUP(A210,'Gini index'!A:B,2)</f>
         <v>24.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" t="str">
+        <f>VLOOKUP(A210,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B211">
-        <v>77.7</v>
+        <v>80.8</v>
       </c>
       <c r="C211">
         <f>VLOOKUP(A211,'GDP per capita'!A:B,2)</f>
-        <v>67900</v>
+        <v>42500</v>
       </c>
       <c r="D211">
         <f>VLOOKUP(A211,'Gini index'!A:B,2)</f>
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.4</v>
+      </c>
+      <c r="E211" t="str">
+        <f>VLOOKUP(A211,Continents!A:B,2)</f>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B212">
-        <v>80.8</v>
+        <v>80</v>
       </c>
       <c r="C212">
         <f>VLOOKUP(A212,'GDP per capita'!A:B,2)</f>
-        <v>42500</v>
+        <v>57400</v>
       </c>
       <c r="D212">
         <f>VLOOKUP(A212,'Gini index'!A:B,2)</f>
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E212" t="str">
+        <f>VLOOKUP(A212,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B213">
-        <v>80</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C213">
         <f>VLOOKUP(A213,'GDP per capita'!A:B,2)</f>
-        <v>57400</v>
+        <v>21500</v>
       </c>
       <c r="D213">
         <f>VLOOKUP(A213,'Gini index'!A:B,2)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41.6</v>
+      </c>
+      <c r="E213" t="str">
+        <f>VLOOKUP(A213,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B214">
-        <v>77.400000000000006</v>
+        <v>74</v>
       </c>
       <c r="C214">
         <f>VLOOKUP(A214,'GDP per capita'!A:B,2)</f>
-        <v>21500</v>
+        <v>6600</v>
       </c>
       <c r="D214">
         <f>VLOOKUP(A214,'Gini index'!A:B,2)</f>
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E214" t="str">
+        <f>VLOOKUP(A214,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B215">
-        <v>74</v>
+        <v>73.7</v>
       </c>
       <c r="C215">
         <f>VLOOKUP(A215,'GDP per capita'!A:B,2)</f>
-        <v>6600</v>
+        <v>2600</v>
       </c>
       <c r="D215">
         <f>VLOOKUP(A215,'Gini index'!A:B,2)</f>
         <v>36.799999999999997</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" t="str">
+        <f>VLOOKUP(A215,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B216">
-        <v>73.7</v>
+        <v>76</v>
       </c>
       <c r="C216">
         <f>VLOOKUP(A216,'GDP per capita'!A:B,2)</f>
-        <v>2600</v>
+        <v>13800</v>
       </c>
       <c r="D216">
         <f>VLOOKUP(A216,'Gini index'!A:B,2)</f>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E216" t="str">
+        <f>VLOOKUP(A216,Continents!A:B,2)</f>
+        <v>Americas</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B217">
-        <v>76</v>
+        <v>73.7</v>
       </c>
       <c r="C217">
         <f>VLOOKUP(A217,'GDP per capita'!A:B,2)</f>
-        <v>13800</v>
+        <v>6400</v>
       </c>
       <c r="D217">
         <f>VLOOKUP(A217,'Gini index'!A:B,2)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.6</v>
+      </c>
+      <c r="E217" t="str">
+        <f>VLOOKUP(A217,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B218">
-        <v>73.7</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C218">
         <f>VLOOKUP(A218,'GDP per capita'!A:B,2)</f>
-        <v>6400</v>
+        <v>36100</v>
       </c>
       <c r="D218">
         <f>VLOOKUP(A218,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" t="str">
+        <f>VLOOKUP(A218,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B219">
-        <v>79.400000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="C219">
         <f>VLOOKUP(A219,'GDP per capita'!A:B,2)</f>
-        <v>36100</v>
+        <v>3800</v>
       </c>
       <c r="D219">
         <f>VLOOKUP(A219,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" t="str">
+        <f>VLOOKUP(A219,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B220">
-        <v>79.8</v>
+        <v>75.2</v>
       </c>
       <c r="C220">
         <f>VLOOKUP(A220,'GDP per capita'!A:B,2)</f>
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="D220">
         <f>VLOOKUP(A220,'Gini index'!A:B,2)</f>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.5</v>
+      </c>
+      <c r="E220" t="str">
+        <f>VLOOKUP(A220,Continents!A:B,2)</f>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B221">
-        <v>75.2</v>
+        <v>63.4</v>
       </c>
       <c r="C221">
         <f>VLOOKUP(A221,'GDP per capita'!A:B,2)</f>
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="D221">
         <f>VLOOKUP(A221,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" t="str">
+        <f>VLOOKUP(A221,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B222">
-        <v>63.4</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C222">
         <f>VLOOKUP(A222,'GDP per capita'!A:B,2)</f>
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="D222">
         <f>VLOOKUP(A222,'Gini index'!A:B,2)</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+      <c r="E222" t="str">
+        <f>VLOOKUP(A222,Continents!A:B,2)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B223">
-        <v>65.900000000000006</v>
+        <v>52.7</v>
       </c>
       <c r="C223">
         <f>VLOOKUP(A223,'GDP per capita'!A:B,2)</f>
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="D223">
         <f>VLOOKUP(A223,'Gini index'!A:B,2)</f>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57.5</v>
+      </c>
+      <c r="E223" t="str">
+        <f>VLOOKUP(A223,Continents!A:B,2)</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B224">
-        <v>52.7</v>
+        <v>60.4</v>
       </c>
       <c r="C224">
         <f>VLOOKUP(A224,'GDP per capita'!A:B,2)</f>
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="D224">
         <f>VLOOKUP(A224,'Gini index'!A:B,2)</f>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>202</v>
-      </c>
-      <c r="B225">
-        <v>60.4</v>
-      </c>
-      <c r="C225">
-        <f>VLOOKUP(A225,'GDP per capita'!A:B,2)</f>
-        <v>2000</v>
-      </c>
-      <c r="D225">
-        <f>VLOOKUP(A225,'Gini index'!A:B,2)</f>
         <v>50.1</v>
+      </c>
+      <c r="E224" t="str">
+        <f>VLOOKUP(A224,Continents!A:B,2)</f>
+        <v>Africa</v>
       </c>
     </row>
   </sheetData>
@@ -4670,6 +5703,2056 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B254"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>96</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>214</v>
+      </c>
+      <c r="B152" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>257</v>
+      </c>
+      <c r="B153" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>251</v>
+      </c>
+      <c r="B158" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>258</v>
+      </c>
+      <c r="B159" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>212</v>
+      </c>
+      <c r="B163" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>213</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>230</v>
+      </c>
+      <c r="B165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>281</v>
+      </c>
+      <c r="B166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>106</v>
+      </c>
+      <c r="B168" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>134</v>
+      </c>
+      <c r="B172" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>260</v>
+      </c>
+      <c r="B173" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>54</v>
+      </c>
+      <c r="B174" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>261</v>
+      </c>
+      <c r="B177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>125</v>
+      </c>
+      <c r="B178" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>282</v>
+      </c>
+      <c r="B180" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>47</v>
+      </c>
+      <c r="B182" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>242</v>
+      </c>
+      <c r="B185" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>107</v>
+      </c>
+      <c r="B186" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>244</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>252</v>
+      </c>
+      <c r="B190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>243</v>
+      </c>
+      <c r="B191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>94</v>
+      </c>
+      <c r="B192" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>65</v>
+      </c>
+      <c r="B193" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>231</v>
+      </c>
+      <c r="B194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>103</v>
+      </c>
+      <c r="B196" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>124</v>
+      </c>
+      <c r="B197" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>99</v>
+      </c>
+      <c r="B201" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>267</v>
+      </c>
+      <c r="B202" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>117</v>
+      </c>
+      <c r="B203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>61</v>
+      </c>
+      <c r="B207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>189</v>
+      </c>
+      <c r="B210" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>283</v>
+      </c>
+      <c r="B211" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>262</v>
+      </c>
+      <c r="B212" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>184</v>
+      </c>
+      <c r="B215" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>147</v>
+      </c>
+      <c r="B216" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>268</v>
+      </c>
+      <c r="B217" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>110</v>
+      </c>
+      <c r="B221" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>39</v>
+      </c>
+      <c r="B222" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>168</v>
+      </c>
+      <c r="B223" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>196</v>
+      </c>
+      <c r="B224" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>115</v>
+      </c>
+      <c r="B225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>165</v>
+      </c>
+      <c r="B226" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>176</v>
+      </c>
+      <c r="B227" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>86</v>
+      </c>
+      <c r="B229" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>137</v>
+      </c>
+      <c r="B230" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>100</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>112</v>
+      </c>
+      <c r="B232" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>158</v>
+      </c>
+      <c r="B233" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>41</v>
+      </c>
+      <c r="B234" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>172</v>
+      </c>
+      <c r="B235" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>284</v>
+      </c>
+      <c r="B236" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>253</v>
+      </c>
+      <c r="B237" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>211</v>
+      </c>
+      <c r="B238" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>149</v>
+      </c>
+      <c r="B239" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>269</v>
+      </c>
+      <c r="B240" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>68</v>
+      </c>
+      <c r="B241" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>34</v>
+      </c>
+      <c r="B242" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>42</v>
+      </c>
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>69</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>126</v>
+      </c>
+      <c r="B245" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>130</v>
+      </c>
+      <c r="B246" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>91</v>
+      </c>
+      <c r="B248" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>131</v>
+      </c>
+      <c r="B249" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>43</v>
+      </c>
+      <c r="B250" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>191</v>
+      </c>
+      <c r="B251" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>175</v>
+      </c>
+      <c r="B252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>218</v>
+      </c>
+      <c r="B253" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>202</v>
+      </c>
+      <c r="B254" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B254">
+    <sortCondition ref="A2:A254"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B231"/>
   <sheetViews>
@@ -6532,7 +9615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B151"/>
   <sheetViews>

--- a/CIA_world_factbook_country_comparisons.xlsx
+++ b/CIA_world_factbook_country_comparisons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LifeExpectancyAtBirth" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="502">
   <si>
     <t>Monaco</t>
   </si>
@@ -737,157 +737,805 @@
     <t>Gini Index Income Inequality</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Congo - Brazzaville</t>
-  </si>
-  <si>
-    <t>Congo - Kinshasa</t>
-  </si>
-  <si>
-    <t>C√¥te d‚ÄôIvoire</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>R√©union</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>S√£o Tom√© and Pr√≠ncipe</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Saint Barth√©lemy</t>
-  </si>
-  <si>
-    <t>U.S. Virgin Islands</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Hong Kong SAR China</t>
-  </si>
-  <si>
-    <t>Macau SAR China</t>
-  </si>
-  <si>
-    <t>Myanmar [Burma]</t>
-  </si>
-  <si>
-    <t>Neutral Zone</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Palestinian Territories</t>
-  </si>
-  <si>
-    <t>People's Democratic Republic of Yemen</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>East Germany</t>
-  </si>
-  <si>
-    <t>Metropolitan France</t>
-  </si>
-  <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Union of Soviet Socialist Republics</t>
-  </si>
-  <si>
-    <t>Vatican City</t>
-  </si>
-  <si>
-    <t>√Öland Islands</t>
-  </si>
-  <si>
     <t>Oceania</t>
   </si>
   <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Cocos [Keeling] Islands</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>U.S. Minor Outlying Islands</t>
-  </si>
-  <si>
     <t>Continent</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch Part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan </t>
+  </si>
+  <si>
+    <t>Åland Islands </t>
+  </si>
+  <si>
+    <t>Albania </t>
+  </si>
+  <si>
+    <t>Algeria </t>
+  </si>
+  <si>
+    <t>American Samoa </t>
+  </si>
+  <si>
+    <t>Andorra </t>
+  </si>
+  <si>
+    <t>Angola </t>
+  </si>
+  <si>
+    <t>Anguilla </t>
+  </si>
+  <si>
+    <t>Antarctica </t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda </t>
+  </si>
+  <si>
+    <t>Argentina </t>
+  </si>
+  <si>
+    <t>Armenia </t>
+  </si>
+  <si>
+    <t>Aruba </t>
+  </si>
+  <si>
+    <t>Australia [includes the island groups of Ashmore-Cartier, Lord Howe and Macquarie] </t>
+  </si>
+  <si>
+    <t>Austria </t>
+  </si>
+  <si>
+    <t>Azerbaijan </t>
+  </si>
+  <si>
+    <t>Bahamas </t>
+  </si>
+  <si>
+    <t>Bahrain </t>
+  </si>
+  <si>
+    <t>Bangladesh </t>
+  </si>
+  <si>
+    <t>Barbados </t>
+  </si>
+  <si>
+    <t>Belarus </t>
+  </si>
+  <si>
+    <t>Belgium </t>
+  </si>
+  <si>
+    <t>Belize </t>
+  </si>
+  <si>
+    <t>Benin </t>
+  </si>
+  <si>
+    <t>Bermuda </t>
+  </si>
+  <si>
+    <t>Bhutan </t>
+  </si>
+  <si>
+    <t>Bolivia, Plurinational State of </t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba </t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina </t>
+  </si>
+  <si>
+    <t>Botswana </t>
+  </si>
+  <si>
+    <t>Bouvet Island </t>
+  </si>
+  <si>
+    <t>Brazil </t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory [includes the Chagos Archipelago] </t>
+  </si>
+  <si>
+    <t>Brunei Darussalam </t>
+  </si>
+  <si>
+    <t>Bulgaria </t>
+  </si>
+  <si>
+    <t>Burkina Faso </t>
+  </si>
+  <si>
+    <t>Burundi </t>
+  </si>
+  <si>
+    <t>Cambodia </t>
+  </si>
+  <si>
+    <t>Cameroon </t>
+  </si>
+  <si>
+    <t>Canada </t>
+  </si>
+  <si>
+    <t>Cape Verde </t>
+  </si>
+  <si>
+    <t>Cayman Islands </t>
+  </si>
+  <si>
+    <t>Central African Republic </t>
+  </si>
+  <si>
+    <t>Chad </t>
+  </si>
+  <si>
+    <t>Chile [includes Easter Island] </t>
+  </si>
+  <si>
+    <t>China </t>
+  </si>
+  <si>
+    <t>Christmas Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clipperton Island </t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands </t>
+  </si>
+  <si>
+    <t>Colombia </t>
+  </si>
+  <si>
+    <t>Comoros </t>
+  </si>
+  <si>
+    <t>Congo </t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic of the </t>
+  </si>
+  <si>
+    <t>Cook Islands </t>
+  </si>
+  <si>
+    <t>Costa Rica </t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire </t>
+  </si>
+  <si>
+    <t>Croatia </t>
+  </si>
+  <si>
+    <t>Cuba </t>
+  </si>
+  <si>
+    <t>Curaçao </t>
+  </si>
+  <si>
+    <t>Cyprus </t>
+  </si>
+  <si>
+    <t>Czech Republic </t>
+  </si>
+  <si>
+    <t>Denmark </t>
+  </si>
+  <si>
+    <t>Disputed Territory [includes the Paracel Islands and Spratly Islands] </t>
+  </si>
+  <si>
+    <t>Djibouti </t>
+  </si>
+  <si>
+    <t>Dominica </t>
+  </si>
+  <si>
+    <t>Dominican Republic </t>
+  </si>
+  <si>
+    <t>Ecuador [includes the Galápagos islands] </t>
+  </si>
+  <si>
+    <t>Egypt </t>
+  </si>
+  <si>
+    <t>El Salvador </t>
+  </si>
+  <si>
+    <t>Equatorial Guinea [includes the islands of Annobón and Bioko] </t>
+  </si>
+  <si>
+    <t>Eritrea </t>
+  </si>
+  <si>
+    <t>Estonia </t>
+  </si>
+  <si>
+    <t>Ethiopia </t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas) </t>
+  </si>
+  <si>
+    <t>Faroe Islands </t>
+  </si>
+  <si>
+    <t>Fiji </t>
+  </si>
+  <si>
+    <t>Finland [excludes the Åland Islands] </t>
+  </si>
+  <si>
+    <t>France [includes Clipperton Island in the eastern Pacific Ocean] </t>
+  </si>
+  <si>
+    <t>French Guiana </t>
+  </si>
+  <si>
+    <t>French Polynesia [includes the island groups of the Marquesas, Society, Tuamotu and Tubai] </t>
+  </si>
+  <si>
+    <t>French Southern Territories [includes the Amsterdam-St Paul, Crozet, Kerguelen and Mozambique Channel island groups] </t>
+  </si>
+  <si>
+    <t>Gabon </t>
+  </si>
+  <si>
+    <t>Gambia </t>
+  </si>
+  <si>
+    <t>Georgia </t>
+  </si>
+  <si>
+    <t>Germany </t>
+  </si>
+  <si>
+    <t>Ghana </t>
+  </si>
+  <si>
+    <t>Gibraltar </t>
+  </si>
+  <si>
+    <t>Greece </t>
+  </si>
+  <si>
+    <t>Greenland </t>
+  </si>
+  <si>
+    <t>Grenada </t>
+  </si>
+  <si>
+    <t>Guadeloupe </t>
+  </si>
+  <si>
+    <t>Guam </t>
+  </si>
+  <si>
+    <t>Guatemala </t>
+  </si>
+  <si>
+    <t>Guernsey </t>
+  </si>
+  <si>
+    <t>Guinea </t>
+  </si>
+  <si>
+    <t>Guinea-Bissau </t>
+  </si>
+  <si>
+    <t>Guyana </t>
+  </si>
+  <si>
+    <t>Haiti </t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands </t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State) </t>
+  </si>
+  <si>
+    <t>Honduras </t>
+  </si>
+  <si>
+    <t>Hong Kong </t>
+  </si>
+  <si>
+    <t>Hungary </t>
+  </si>
+  <si>
+    <t>Iceland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">India [includes the Andaman, Laccadive and Nicobar island groups] </t>
+  </si>
+  <si>
+    <t>Indonesia </t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of </t>
+  </si>
+  <si>
+    <t>Iraq </t>
+  </si>
+  <si>
+    <t>Ireland </t>
+  </si>
+  <si>
+    <t>Isle of Man </t>
+  </si>
+  <si>
+    <t>Israel </t>
+  </si>
+  <si>
+    <t>Italy </t>
+  </si>
+  <si>
+    <t>Jamaica </t>
+  </si>
+  <si>
+    <t>Japan </t>
+  </si>
+  <si>
+    <t>Jersey </t>
+  </si>
+  <si>
+    <t>Jordan </t>
+  </si>
+  <si>
+    <t>Kazakhstan </t>
+  </si>
+  <si>
+    <t>Kenya </t>
+  </si>
+  <si>
+    <t>Kiribati [includes the Gilbert, Kiribati Line and Phoenix island groups] </t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of </t>
+  </si>
+  <si>
+    <t>Korea, Republic of </t>
+  </si>
+  <si>
+    <t>Kuwait </t>
+  </si>
+  <si>
+    <t>Kyrgyzstan </t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic </t>
+  </si>
+  <si>
+    <t>Latvia </t>
+  </si>
+  <si>
+    <t>Lebanon </t>
+  </si>
+  <si>
+    <t>Lesotho </t>
+  </si>
+  <si>
+    <t>Liberia </t>
+  </si>
+  <si>
+    <t>Libya </t>
+  </si>
+  <si>
+    <t>Liechtenstein </t>
+  </si>
+  <si>
+    <t>Lithuania </t>
+  </si>
+  <si>
+    <t>Luxembourg </t>
+  </si>
+  <si>
+    <t>Macao </t>
+  </si>
+  <si>
+    <t>Macedonia, the former Yugoslav Republic of </t>
+  </si>
+  <si>
+    <t>Madagascar </t>
+  </si>
+  <si>
+    <t>Malawi </t>
+  </si>
+  <si>
+    <t>Malaysia </t>
+  </si>
+  <si>
+    <t>Maldives </t>
+  </si>
+  <si>
+    <t>Mali </t>
+  </si>
+  <si>
+    <t>Malta </t>
+  </si>
+  <si>
+    <t>Marshall Islands </t>
+  </si>
+  <si>
+    <t>Martinique </t>
+  </si>
+  <si>
+    <t>Mauritania </t>
+  </si>
+  <si>
+    <t>Mauritius [includes Rodrigues] </t>
+  </si>
+  <si>
+    <t>Mayotte </t>
+  </si>
+  <si>
+    <t>Mexico </t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of </t>
+  </si>
+  <si>
+    <t>Moldova </t>
+  </si>
+  <si>
+    <t>Monaco </t>
+  </si>
+  <si>
+    <t>Mongolia </t>
+  </si>
+  <si>
+    <t>Montenegro </t>
+  </si>
+  <si>
+    <t>Montserrat </t>
+  </si>
+  <si>
+    <t>Morocco </t>
+  </si>
+  <si>
+    <t>Mozambique </t>
+  </si>
+  <si>
+    <t>Myanmar </t>
+  </si>
+  <si>
+    <t>Namibia </t>
+  </si>
+  <si>
+    <t>Nauru </t>
+  </si>
+  <si>
+    <t>Nepal </t>
+  </si>
+  <si>
+    <t>Netherlands </t>
+  </si>
+  <si>
+    <t>New Caledonia </t>
+  </si>
+  <si>
+    <t>New Zealand [includes the Antipodean, Chatham and Kermadec island groups] </t>
+  </si>
+  <si>
+    <t>Nicaragua </t>
+  </si>
+  <si>
+    <t>Niger </t>
+  </si>
+  <si>
+    <t>Nigeria </t>
+  </si>
+  <si>
+    <t>Niue </t>
+  </si>
+  <si>
+    <t>Norfolk Island </t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands </t>
+  </si>
+  <si>
+    <t>Norway </t>
+  </si>
+  <si>
+    <t>Oman </t>
+  </si>
+  <si>
+    <t>Pakistan </t>
+  </si>
+  <si>
+    <t>Palau </t>
+  </si>
+  <si>
+    <t>Palestine, State of </t>
+  </si>
+  <si>
+    <t>Panama </t>
+  </si>
+  <si>
+    <t>Papua New Guinea [includes the Bismarck Archipelago and the North Solomons] </t>
+  </si>
+  <si>
+    <t>Paraguay </t>
+  </si>
+  <si>
+    <t>Peru </t>
+  </si>
+  <si>
+    <t>Philippines </t>
+  </si>
+  <si>
+    <t>Pitcairn </t>
+  </si>
+  <si>
+    <t>Poland </t>
+  </si>
+  <si>
+    <t>Portugal [includes the Azores, Madeira and the Selvagens islands] </t>
+  </si>
+  <si>
+    <t>Puerto Rico </t>
+  </si>
+  <si>
+    <t>Qatar </t>
+  </si>
+  <si>
+    <t>Réunion </t>
+  </si>
+  <si>
+    <t>Romania </t>
+  </si>
+  <si>
+    <t>Russian Federation </t>
+  </si>
+  <si>
+    <t>Rwanda </t>
+  </si>
+  <si>
+    <t>Saint Bathélemy </t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha </t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis </t>
+  </si>
+  <si>
+    <t>Saint Lucia </t>
+  </si>
+  <si>
+    <t>Saint Martin (French Part) </t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon </t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines </t>
+  </si>
+  <si>
+    <t>Samoa </t>
+  </si>
+  <si>
+    <t>San Marino </t>
+  </si>
+  <si>
+    <t>Sao Tomé and Principe </t>
+  </si>
+  <si>
+    <t>Saudi Arabia </t>
+  </si>
+  <si>
+    <t>Senegal </t>
+  </si>
+  <si>
+    <t>Serbia </t>
+  </si>
+  <si>
+    <t>Seychelles [includes the island of Aldabra] </t>
+  </si>
+  <si>
+    <t>Sierra Leone </t>
+  </si>
+  <si>
+    <t>Singapore </t>
+  </si>
+  <si>
+    <t>Slovakia </t>
+  </si>
+  <si>
+    <t>Slovenia </t>
+  </si>
+  <si>
+    <t>Solomon Islands </t>
+  </si>
+  <si>
+    <t>Somalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa [includes Marion and Prince Edward Islands] </t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain [includes the Belearic and Canary islands and the Spanish North African Territories] </t>
+  </si>
+  <si>
+    <t>Sri Lanka </t>
+  </si>
+  <si>
+    <t>Sudan </t>
+  </si>
+  <si>
+    <t>Suriname </t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen </t>
+  </si>
+  <si>
+    <t>Swaziland </t>
+  </si>
+  <si>
+    <t>Sweden </t>
+  </si>
+  <si>
+    <t>Switzerland </t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic </t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China </t>
+  </si>
+  <si>
+    <t>Tajikistan </t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of </t>
+  </si>
+  <si>
+    <t>Thailand </t>
+  </si>
+  <si>
+    <t>Timor-Leste </t>
+  </si>
+  <si>
+    <t>Togo </t>
+  </si>
+  <si>
+    <t>Tokelau </t>
+  </si>
+  <si>
+    <t>Tonga </t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago </t>
+  </si>
+  <si>
+    <t>Tunisia </t>
+  </si>
+  <si>
+    <t>Turkey </t>
+  </si>
+  <si>
+    <t>Turkmenistan </t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands </t>
+  </si>
+  <si>
+    <t>Tuvalu </t>
+  </si>
+  <si>
+    <t>Uganda </t>
+  </si>
+  <si>
+    <t>Ukraine </t>
+  </si>
+  <si>
+    <t>United Arab Emirates </t>
+  </si>
+  <si>
+    <t>United Kingdom [excludes Guernsey, Jersey and Isle of Man] </t>
+  </si>
+  <si>
+    <t>United States </t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands [includes the Howland-Baker, Johnston, Midway, US Line and Wake island groups] </t>
+  </si>
+  <si>
+    <t>Uruguay </t>
+  </si>
+  <si>
+    <t>Uzbekistan </t>
+  </si>
+  <si>
+    <t>Vanuatu </t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivarian Republic of </t>
+  </si>
+  <si>
+    <t>Viet Nam </t>
+  </si>
+  <si>
+    <t>Virgin Islands, British </t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S. </t>
+  </si>
+  <si>
+    <t>Wallis and Futuna </t>
+  </si>
+  <si>
+    <t>Western Sahara </t>
+  </si>
+  <si>
+    <t>Yemen [includes the island of Socotra] </t>
+  </si>
+  <si>
+    <t>Zambia </t>
+  </si>
+  <si>
+    <t>Zimbabwe </t>
+  </si>
+  <si>
+    <t>West &amp; Central Asia</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Caribbean Islands</t>
+  </si>
+  <si>
+    <t>Antarctic</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>South &amp; South East Asia</t>
+  </si>
+  <si>
+    <t>North Asia</t>
+  </si>
+  <si>
+    <t>Mesoamerica</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> under France</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -897,13 +1545,23 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -926,9 +1584,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,13 +1868,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1231,7 +1892,7 @@
         <v>234</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1249,9 +1910,8 @@
         <f>VLOOKUP(A2,'Gini index'!A:B,2)</f>
         <v>29</v>
       </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(A2,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,9 +1929,8 @@
         <f>VLOOKUP(A3,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(A3,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1289,9 +1948,8 @@
         <f>VLOOKUP(A4,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(A4,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,9 +1967,8 @@
         <f>VLOOKUP(A5,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(A5,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1329,9 +1986,8 @@
         <f>VLOOKUP(A6,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(A6,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1349,9 +2005,8 @@
         <f>VLOOKUP(A7,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(A7,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E7" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,9 +2024,8 @@
         <f>VLOOKUP(A8,'Gini index'!A:B,2)</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(A8,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1389,9 +2043,8 @@
         <f>VLOOKUP(A9,'Gini index'!A:B,2)</f>
         <v>42.7</v>
       </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(A9,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E9" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,9 +2062,8 @@
         <f>VLOOKUP(A10,'Gini index'!A:B,2)</f>
         <v>31.5</v>
       </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(A10,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,9 +2081,8 @@
         <f>VLOOKUP(A11,'Gini index'!A:B,2)</f>
         <v>31.5</v>
       </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(A11,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,9 +2100,8 @@
         <f>VLOOKUP(A12,'Gini index'!A:B,2)</f>
         <v>30.3</v>
       </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(A12,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1469,9 +2119,8 @@
         <f>VLOOKUP(A13,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(A13,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,9 +2138,8 @@
         <f>VLOOKUP(A14,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(A14,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E14" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,9 +2157,8 @@
         <f>VLOOKUP(A15,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(A15,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1529,9 +2176,8 @@
         <f>VLOOKUP(A16,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(A16,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E16" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1549,9 +2195,8 @@
         <f>VLOOKUP(A17,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(A17,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1569,9 +2214,8 @@
         <f>VLOOKUP(A18,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(A18,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E18" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1589,9 +2233,8 @@
         <f>VLOOKUP(A19,'Gini index'!A:B,2)</f>
         <v>26.5</v>
       </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(A19,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,9 +2252,8 @@
         <f>VLOOKUP(A20,'Gini index'!A:B,2)</f>
         <v>25.9</v>
       </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(A20,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,9 +2271,8 @@
         <f>VLOOKUP(A21,'Gini index'!A:B,2)</f>
         <v>25.9</v>
       </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(A21,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E21" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,9 +2290,8 @@
         <f>VLOOKUP(A22,'Gini index'!A:B,2)</f>
         <v>36.5</v>
       </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(A22,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E22" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,9 +2309,8 @@
         <f>VLOOKUP(A23,'Gini index'!A:B,2)</f>
         <v>36.5</v>
       </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(A23,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E23" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,9 +2328,8 @@
         <f>VLOOKUP(A24,'Gini index'!A:B,2)</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(A24,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E24" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1709,9 +2347,8 @@
         <f>VLOOKUP(A25,'Gini index'!A:B,2)</f>
         <v>47</v>
       </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(A25,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E25" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1729,9 +2366,8 @@
         <f>VLOOKUP(A26,'Gini index'!A:B,2)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(A26,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,9 +2385,8 @@
         <f>VLOOKUP(A27,'Gini index'!A:B,2)</f>
         <v>60.5</v>
       </c>
-      <c r="E27" t="str">
-        <f>VLOOKUP(A27,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E27" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1769,9 +2404,8 @@
         <f>VLOOKUP(A28,'Gini index'!A:B,2)</f>
         <v>49.7</v>
       </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(A28,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E28" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,9 +2423,8 @@
         <f>VLOOKUP(A29,'Gini index'!A:B,2)</f>
         <v>49.7</v>
       </c>
-      <c r="E29" t="str">
-        <f>VLOOKUP(A29,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E29" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1809,9 +2442,8 @@
         <f>VLOOKUP(A30,'Gini index'!A:B,2)</f>
         <v>49.7</v>
       </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(A30,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E30" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1829,9 +2461,8 @@
         <f>VLOOKUP(A31,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-      <c r="E31" t="str">
-        <f>VLOOKUP(A31,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E31" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1849,9 +2480,8 @@
         <f>VLOOKUP(A32,'Gini index'!A:B,2)</f>
         <v>39.5</v>
       </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(A32,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E32" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,9 +2499,8 @@
         <f>VLOOKUP(A33,'Gini index'!A:B,2)</f>
         <v>39.5</v>
       </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(A33,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E33" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1889,9 +2518,8 @@
         <f>VLOOKUP(A34,'Gini index'!A:B,2)</f>
         <v>42.4</v>
       </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(A34,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E34" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1909,9 +2537,8 @@
         <f>VLOOKUP(A35,'Gini index'!A:B,2)</f>
         <v>42.4</v>
       </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(A35,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E35" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1929,9 +2556,8 @@
         <f>VLOOKUP(A36,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(A36,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E36" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,9 +2575,8 @@
         <f>VLOOKUP(A37,'Gini index'!A:B,2)</f>
         <v>44.6</v>
       </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(A37,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E37" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1969,9 +2594,8 @@
         <f>VLOOKUP(A38,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(A38,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E38" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,9 +2613,8 @@
         <f>VLOOKUP(A39,'Gini index'!A:B,2)</f>
         <v>32.1</v>
       </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(A39,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E39" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2009,9 +2632,8 @@
         <f>VLOOKUP(A40,'Gini index'!A:B,2)</f>
         <v>61.3</v>
       </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(A40,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E40" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,9 +2651,8 @@
         <f>VLOOKUP(A41,'Gini index'!A:B,2)</f>
         <v>43.3</v>
       </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(A41,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E41" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2049,9 +2670,8 @@
         <f>VLOOKUP(A42,'Gini index'!A:B,2)</f>
         <v>50.5</v>
       </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(A42,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E42" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,9 +2689,8 @@
         <f>VLOOKUP(A43,'Gini index'!A:B,2)</f>
         <v>46.5</v>
       </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(A43,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E43" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2089,9 +2708,8 @@
         <f>VLOOKUP(A44,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-      <c r="E44" t="str">
-        <f>VLOOKUP(A44,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E44" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,9 +2727,8 @@
         <f>VLOOKUP(A45,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-      <c r="E45" t="str">
-        <f>VLOOKUP(A45,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E45" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,9 +2746,8 @@
         <f>VLOOKUP(A46,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(A46,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E46" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2149,9 +2765,8 @@
         <f>VLOOKUP(A47,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(A47,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E47" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2169,9 +2784,8 @@
         <f>VLOOKUP(A48,'Gini index'!A:B,2)</f>
         <v>53.5</v>
       </c>
-      <c r="E48" t="str">
-        <f>VLOOKUP(A48,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E48" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,9 +2803,8 @@
         <f>VLOOKUP(A49,'Gini index'!A:B,2)</f>
         <v>48.5</v>
       </c>
-      <c r="E49" t="str">
-        <f>VLOOKUP(A49,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E49" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,9 +2822,8 @@
         <f>VLOOKUP(A50,'Gini index'!A:B,2)</f>
         <v>41.5</v>
       </c>
-      <c r="E50" t="str">
-        <f>VLOOKUP(A50,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E50" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2229,9 +2841,8 @@
         <f>VLOOKUP(A51,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E51" t="str">
-        <f>VLOOKUP(A51,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E51" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,9 +2860,8 @@
         <f>VLOOKUP(A52,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E52" t="str">
-        <f>VLOOKUP(A52,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E52" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2269,9 +2879,8 @@
         <f>VLOOKUP(A53,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E53" t="str">
-        <f>VLOOKUP(A53,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E53" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,9 +2898,8 @@
         <f>VLOOKUP(A54,'Gini index'!A:B,2)</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="E54" t="str">
-        <f>VLOOKUP(A54,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E54" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2309,9 +2917,8 @@
         <f>VLOOKUP(A55,'Gini index'!A:B,2)</f>
         <v>25</v>
       </c>
-      <c r="E55" t="str">
-        <f>VLOOKUP(A55,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E55" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,9 +2936,8 @@
         <f>VLOOKUP(A56,'Gini index'!A:B,2)</f>
         <v>28.8</v>
       </c>
-      <c r="E56" t="str">
-        <f>VLOOKUP(A56,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E56" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2349,9 +2955,8 @@
         <f>VLOOKUP(A57,'Gini index'!A:B,2)</f>
         <v>40.9</v>
       </c>
-      <c r="E57" t="str">
-        <f>VLOOKUP(A57,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E57" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2369,9 +2974,8 @@
         <f>VLOOKUP(A58,'Gini index'!A:B,2)</f>
         <v>40.9</v>
       </c>
-      <c r="E58" t="str">
-        <f>VLOOKUP(A58,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E58" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,9 +2993,8 @@
         <f>VLOOKUP(A59,'Gini index'!A:B,2)</f>
         <v>47.1</v>
       </c>
-      <c r="E59" t="str">
-        <f>VLOOKUP(A59,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E59" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,9 +3012,8 @@
         <f>VLOOKUP(A60,'Gini index'!A:B,2)</f>
         <v>48.5</v>
       </c>
-      <c r="E60" t="str">
-        <f>VLOOKUP(A60,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E60" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,9 +3031,8 @@
         <f>VLOOKUP(A61,'Gini index'!A:B,2)</f>
         <v>30.8</v>
       </c>
-      <c r="E61" t="str">
-        <f>VLOOKUP(A61,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E61" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,9 +3050,8 @@
         <f>VLOOKUP(A62,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-      <c r="E62" t="str">
-        <f>VLOOKUP(A62,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E62" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2469,9 +3069,8 @@
         <f>VLOOKUP(A63,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-      <c r="E63" t="str">
-        <f>VLOOKUP(A63,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E63" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,9 +3088,8 @@
         <f>VLOOKUP(A64,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-      <c r="E64" t="str">
-        <f>VLOOKUP(A64,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E64" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,9 +3107,8 @@
         <f>VLOOKUP(A65,'Gini index'!A:B,2)</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="E65" t="str">
-        <f>VLOOKUP(A65,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E65" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2529,9 +3126,8 @@
         <f>VLOOKUP(A66,'Gini index'!A:B,2)</f>
         <v>33</v>
       </c>
-      <c r="E66" t="str">
-        <f>VLOOKUP(A66,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E66" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,9 +3145,8 @@
         <f>VLOOKUP(A67,'Gini index'!A:B,2)</f>
         <v>31</v>
       </c>
-      <c r="E67" t="str">
-        <f>VLOOKUP(A67,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E67" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,9 +3164,8 @@
         <f>VLOOKUP(A68,'Gini index'!A:B,2)</f>
         <v>22.7</v>
       </c>
-      <c r="E68" t="str">
-        <f>VLOOKUP(A68,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E68" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2589,9 +3183,8 @@
         <f>VLOOKUP(A69,'Gini index'!A:B,2)</f>
         <v>22.7</v>
       </c>
-      <c r="E69" t="str">
-        <f>VLOOKUP(A69,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E69" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2609,9 +3202,8 @@
         <f>VLOOKUP(A70,'Gini index'!A:B,2)</f>
         <v>21.5</v>
       </c>
-      <c r="E70" t="str">
-        <f>VLOOKUP(A70,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E70" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2629,9 +3221,8 @@
         <f>VLOOKUP(A71,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-      <c r="E71" t="str">
-        <f>VLOOKUP(A71,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E71" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2649,9 +3240,8 @@
         <f>VLOOKUP(A72,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-      <c r="E72" t="str">
-        <f>VLOOKUP(A72,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E72" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2669,9 +3259,8 @@
         <f>VLOOKUP(A73,'Gini index'!A:B,2)</f>
         <v>29.2</v>
       </c>
-      <c r="E73" t="str">
-        <f>VLOOKUP(A73,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E73" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2689,9 +3278,8 @@
         <f>VLOOKUP(A74,'Gini index'!A:B,2)</f>
         <v>50.2</v>
       </c>
-      <c r="E74" t="str">
-        <f>VLOOKUP(A74,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E74" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2709,9 +3297,8 @@
         <f>VLOOKUP(A75,'Gini index'!A:B,2)</f>
         <v>50.2</v>
       </c>
-      <c r="E75" t="str">
-        <f>VLOOKUP(A75,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E75" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,9 +3316,8 @@
         <f>VLOOKUP(A76,'Gini index'!A:B,2)</f>
         <v>40.1</v>
       </c>
-      <c r="E76" t="str">
-        <f>VLOOKUP(A76,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E76" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2749,9 +3335,8 @@
         <f>VLOOKUP(A77,'Gini index'!A:B,2)</f>
         <v>27</v>
       </c>
-      <c r="E77" t="str">
-        <f>VLOOKUP(A77,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E77" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2769,9 +3354,8 @@
         <f>VLOOKUP(A78,'Gini index'!A:B,2)</f>
         <v>42.3</v>
       </c>
-      <c r="E78" t="str">
-        <f>VLOOKUP(A78,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E78" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2789,9 +3373,8 @@
         <f>VLOOKUP(A79,'Gini index'!A:B,2)</f>
         <v>42.3</v>
       </c>
-      <c r="E79" t="str">
-        <f>VLOOKUP(A79,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E79" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2809,9 +3392,8 @@
         <f>VLOOKUP(A80,'Gini index'!A:B,2)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="E80" t="str">
-        <f>VLOOKUP(A80,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E80" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2829,9 +3411,8 @@
         <f>VLOOKUP(A81,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E81" t="str">
-        <f>VLOOKUP(A81,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E81" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,9 +3430,8 @@
         <f>VLOOKUP(A82,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E82" t="str">
-        <f>VLOOKUP(A82,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E82" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2869,9 +3449,8 @@
         <f>VLOOKUP(A83,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E83" t="str">
-        <f>VLOOKUP(A83,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E83" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2889,9 +3468,8 @@
         <f>VLOOKUP(A84,'Gini index'!A:B,2)</f>
         <v>53</v>
       </c>
-      <c r="E84" t="str">
-        <f>VLOOKUP(A84,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E84" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,9 +3487,8 @@
         <f>VLOOKUP(A85,'Gini index'!A:B,2)</f>
         <v>53</v>
       </c>
-      <c r="E85" t="str">
-        <f>VLOOKUP(A85,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E85" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,9 +3506,8 @@
         <f>VLOOKUP(A86,'Gini index'!A:B,2)</f>
         <v>39.4</v>
       </c>
-      <c r="E86" t="str">
-        <f>VLOOKUP(A86,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E86" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2949,9 +3525,8 @@
         <f>VLOOKUP(A87,'Gini index'!A:B,2)</f>
         <v>39.4</v>
       </c>
-      <c r="E87" t="str">
-        <f>VLOOKUP(A87,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E87" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2969,9 +3544,8 @@
         <f>VLOOKUP(A88,'Gini index'!A:B,2)</f>
         <v>44.6</v>
       </c>
-      <c r="E88" t="str">
-        <f>VLOOKUP(A88,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E88" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2989,9 +3563,8 @@
         <f>VLOOKUP(A89,'Gini index'!A:B,2)</f>
         <v>60.8</v>
       </c>
-      <c r="E89" t="str">
-        <f>VLOOKUP(A89,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E89" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3009,9 +3582,8 @@
         <f>VLOOKUP(A90,'Gini index'!A:B,2)</f>
         <v>47.1</v>
       </c>
-      <c r="E90" t="str">
-        <f>VLOOKUP(A90,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E90" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3029,9 +3601,8 @@
         <f>VLOOKUP(A91,'Gini index'!A:B,2)</f>
         <v>53.7</v>
       </c>
-      <c r="E91" t="str">
-        <f>VLOOKUP(A91,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E91" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3049,9 +3620,8 @@
         <f>VLOOKUP(A92,'Gini index'!A:B,2)</f>
         <v>28.2</v>
       </c>
-      <c r="E92" t="str">
-        <f>VLOOKUP(A92,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E92" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,9 +3639,8 @@
         <f>VLOOKUP(A93,'Gini index'!A:B,2)</f>
         <v>28</v>
       </c>
-      <c r="E93" t="str">
-        <f>VLOOKUP(A93,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E93" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,9 +3658,8 @@
         <f>VLOOKUP(A94,'Gini index'!A:B,2)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="E94" t="str">
-        <f>VLOOKUP(A94,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E94" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3109,9 +3677,8 @@
         <f>VLOOKUP(A95,'Gini index'!A:B,2)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="E95" t="str">
-        <f>VLOOKUP(A95,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E95" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3129,9 +3696,8 @@
         <f>VLOOKUP(A96,'Gini index'!A:B,2)</f>
         <v>44.5</v>
       </c>
-      <c r="E96" t="str">
-        <f>VLOOKUP(A96,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E96" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,9 +3715,8 @@
         <f>VLOOKUP(A97,'Gini index'!A:B,2)</f>
         <v>44.5</v>
       </c>
-      <c r="E97" t="str">
-        <f>VLOOKUP(A97,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E97" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3169,9 +3734,8 @@
         <f>VLOOKUP(A98,'Gini index'!A:B,2)</f>
         <v>31.3</v>
       </c>
-      <c r="E98" t="str">
-        <f>VLOOKUP(A98,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E98" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3189,9 +3753,8 @@
         <f>VLOOKUP(A99,'Gini index'!A:B,2)</f>
         <v>31.3</v>
       </c>
-      <c r="E99" t="str">
-        <f>VLOOKUP(A99,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E99" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3209,9 +3772,8 @@
         <f>VLOOKUP(A100,'Gini index'!A:B,2)</f>
         <v>42.8</v>
       </c>
-      <c r="E100" t="str">
-        <f>VLOOKUP(A100,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E100" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3229,9 +3791,8 @@
         <f>VLOOKUP(A101,'Gini index'!A:B,2)</f>
         <v>31.9</v>
       </c>
-      <c r="E101" t="str">
-        <f>VLOOKUP(A101,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E101" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,9 +3810,8 @@
         <f>VLOOKUP(A102,'Gini index'!A:B,2)</f>
         <v>45.5</v>
       </c>
-      <c r="E102" t="str">
-        <f>VLOOKUP(A102,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E102" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3269,9 +3829,8 @@
         <f>VLOOKUP(A103,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-      <c r="E103" t="str">
-        <f>VLOOKUP(A103,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E103" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3289,9 +3848,8 @@
         <f>VLOOKUP(A104,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-      <c r="E104" t="str">
-        <f>VLOOKUP(A104,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E104" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3309,9 +3867,8 @@
         <f>VLOOKUP(A105,'Gini index'!A:B,2)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="E105" t="str">
-        <f>VLOOKUP(A105,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E105" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3329,9 +3886,8 @@
         <f>VLOOKUP(A106,'Gini index'!A:B,2)</f>
         <v>26.3</v>
       </c>
-      <c r="E106" t="str">
-        <f>VLOOKUP(A106,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E106" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3349,9 +3905,8 @@
         <f>VLOOKUP(A107,'Gini index'!A:B,2)</f>
         <v>42.5</v>
       </c>
-      <c r="E107" t="str">
-        <f>VLOOKUP(A107,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E107" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3369,9 +3924,8 @@
         <f>VLOOKUP(A108,'Gini index'!A:B,2)</f>
         <v>42.5</v>
       </c>
-      <c r="E108" t="str">
-        <f>VLOOKUP(A108,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E108" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3389,9 +3943,8 @@
         <f>VLOOKUP(A109,'Gini index'!A:B,2)</f>
         <v>42.5</v>
       </c>
-      <c r="E109" t="str">
-        <f>VLOOKUP(A109,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E109" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,9 +3962,8 @@
         <f>VLOOKUP(A110,'Gini index'!A:B,2)</f>
         <v>34.1</v>
       </c>
-      <c r="E110" t="str">
-        <f>VLOOKUP(A110,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E110" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,9 +3981,8 @@
         <f>VLOOKUP(A111,'Gini index'!A:B,2)</f>
         <v>30</v>
       </c>
-      <c r="E111" t="str">
-        <f>VLOOKUP(A111,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E111" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3449,9 +4000,8 @@
         <f>VLOOKUP(A112,'Gini index'!A:B,2)</f>
         <v>33.4</v>
       </c>
-      <c r="E112" t="str">
-        <f>VLOOKUP(A112,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E112" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3469,9 +4019,8 @@
         <f>VLOOKUP(A113,'Gini index'!A:B,2)</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="E113" t="str">
-        <f>VLOOKUP(A113,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E113" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3489,9 +4038,8 @@
         <f>VLOOKUP(A114,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-      <c r="E114" t="str">
-        <f>VLOOKUP(A114,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E114" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3509,9 +4057,8 @@
         <f>VLOOKUP(A115,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-      <c r="E115" t="str">
-        <f>VLOOKUP(A115,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E115" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3529,9 +4076,8 @@
         <f>VLOOKUP(A116,'Gini index'!A:B,2)</f>
         <v>63.2</v>
       </c>
-      <c r="E116" t="str">
-        <f>VLOOKUP(A116,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E116" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3549,9 +4095,8 @@
         <f>VLOOKUP(A117,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E117" t="str">
-        <f>VLOOKUP(A117,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E117" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3569,9 +4114,8 @@
         <f>VLOOKUP(A118,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E118" t="str">
-        <f>VLOOKUP(A118,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E118" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3589,9 +4133,8 @@
         <f>VLOOKUP(A119,'Gini index'!A:B,2)</f>
         <v>32</v>
       </c>
-      <c r="E119" t="str">
-        <f>VLOOKUP(A119,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E119" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3609,9 +4152,8 @@
         <f>VLOOKUP(A120,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-      <c r="E120" t="str">
-        <f>VLOOKUP(A120,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E120" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3629,9 +4171,8 @@
         <f>VLOOKUP(A121,'Gini index'!A:B,2)</f>
         <v>30.4</v>
       </c>
-      <c r="E121" t="str">
-        <f>VLOOKUP(A121,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E121" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3649,9 +4190,8 @@
         <f>VLOOKUP(A122,'Gini index'!A:B,2)</f>
         <v>35</v>
       </c>
-      <c r="E122" t="str">
-        <f>VLOOKUP(A122,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E122" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3669,9 +4209,8 @@
         <f>VLOOKUP(A123,'Gini index'!A:B,2)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E123" t="str">
-        <f>VLOOKUP(A123,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E123" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3689,9 +4228,8 @@
         <f>VLOOKUP(A124,'Gini index'!A:B,2)</f>
         <v>41</v>
       </c>
-      <c r="E124" t="str">
-        <f>VLOOKUP(A124,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E124" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3709,9 +4247,8 @@
         <f>VLOOKUP(A125,'Gini index'!A:B,2)</f>
         <v>46.1</v>
       </c>
-      <c r="E125" t="str">
-        <f>VLOOKUP(A125,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E125" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3729,9 +4266,8 @@
         <f>VLOOKUP(A126,'Gini index'!A:B,2)</f>
         <v>46.2</v>
       </c>
-      <c r="E126" t="str">
-        <f>VLOOKUP(A126,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E126" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3749,9 +4285,8 @@
         <f>VLOOKUP(A127,'Gini index'!A:B,2)</f>
         <v>38.4</v>
       </c>
-      <c r="E127" t="str">
-        <f>VLOOKUP(A127,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E127" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3769,9 +4304,8 @@
         <f>VLOOKUP(A128,'Gini index'!A:B,2)</f>
         <v>40.1</v>
       </c>
-      <c r="E128" t="str">
-        <f>VLOOKUP(A128,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E128" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3789,9 +4323,8 @@
         <f>VLOOKUP(A129,'Gini index'!A:B,2)</f>
         <v>28.1</v>
       </c>
-      <c r="E129" t="str">
-        <f>VLOOKUP(A129,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E129" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3809,9 +4342,8 @@
         <f>VLOOKUP(A130,'Gini index'!A:B,2)</f>
         <v>28.1</v>
       </c>
-      <c r="E130" t="str">
-        <f>VLOOKUP(A130,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E130" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3829,9 +4361,8 @@
         <f>VLOOKUP(A131,'Gini index'!A:B,2)</f>
         <v>37</v>
       </c>
-      <c r="E131" t="str">
-        <f>VLOOKUP(A131,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E131" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,9 +4380,8 @@
         <f>VLOOKUP(A132,'Gini index'!A:B,2)</f>
         <v>35.9</v>
       </c>
-      <c r="E132" t="str">
-        <f>VLOOKUP(A132,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E132" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,9 +4399,8 @@
         <f>VLOOKUP(A133,'Gini index'!A:B,2)</f>
         <v>48.2</v>
       </c>
-      <c r="E133" t="str">
-        <f>VLOOKUP(A133,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E133" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3889,9 +4418,8 @@
         <f>VLOOKUP(A134,'Gini index'!A:B,2)</f>
         <v>61.1</v>
       </c>
-      <c r="E134" t="str">
-        <f>VLOOKUP(A134,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E134" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3909,9 +4437,8 @@
         <f>VLOOKUP(A135,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-      <c r="E135" t="str">
-        <f>VLOOKUP(A135,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E135" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3929,9 +4456,8 @@
         <f>VLOOKUP(A136,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-      <c r="E136" t="str">
-        <f>VLOOKUP(A136,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E136" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3949,9 +4475,8 @@
         <f>VLOOKUP(A137,'Gini index'!A:B,2)</f>
         <v>36.5</v>
       </c>
-      <c r="E137" t="str">
-        <f>VLOOKUP(A137,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E137" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3969,9 +4494,8 @@
         <f>VLOOKUP(A138,'Gini index'!A:B,2)</f>
         <v>26.2</v>
       </c>
-      <c r="E138" t="str">
-        <f>VLOOKUP(A138,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E138" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,9 +4513,8 @@
         <f>VLOOKUP(A139,'Gini index'!A:B,2)</f>
         <v>40.9</v>
       </c>
-      <c r="E139" t="str">
-        <f>VLOOKUP(A139,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E139" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4009,9 +4532,8 @@
         <f>VLOOKUP(A140,'Gini index'!A:B,2)</f>
         <v>45.6</v>
       </c>
-      <c r="E140" t="str">
-        <f>VLOOKUP(A140,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E140" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4029,9 +4551,8 @@
         <f>VLOOKUP(A141,'Gini index'!A:B,2)</f>
         <v>59.7</v>
       </c>
-      <c r="E141" t="str">
-        <f>VLOOKUP(A141,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E141" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4049,9 +4570,8 @@
         <f>VLOOKUP(A142,'Gini index'!A:B,2)</f>
         <v>59.7</v>
       </c>
-      <c r="E142" t="str">
-        <f>VLOOKUP(A142,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E142" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4069,9 +4589,8 @@
         <f>VLOOKUP(A143,'Gini index'!A:B,2)</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="E143" t="str">
-        <f>VLOOKUP(A143,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E143" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4089,9 +4608,8 @@
         <f>VLOOKUP(A144,'Gini index'!A:B,2)</f>
         <v>30.3</v>
       </c>
-      <c r="E144" t="str">
-        <f>VLOOKUP(A144,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E144" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4109,9 +4627,8 @@
         <f>VLOOKUP(A145,'Gini index'!A:B,2)</f>
         <v>30.3</v>
       </c>
-      <c r="E145" t="str">
-        <f>VLOOKUP(A145,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E145" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,9 +4646,8 @@
         <f>VLOOKUP(A146,'Gini index'!A:B,2)</f>
         <v>36.200000000000003</v>
       </c>
-      <c r="E146" t="str">
-        <f>VLOOKUP(A146,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E146" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,9 +4665,8 @@
         <f>VLOOKUP(A147,'Gini index'!A:B,2)</f>
         <v>47.1</v>
       </c>
-      <c r="E147" t="str">
-        <f>VLOOKUP(A147,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E147" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4169,9 +4684,8 @@
         <f>VLOOKUP(A148,'Gini index'!A:B,2)</f>
         <v>34</v>
       </c>
-      <c r="E148" t="str">
-        <f>VLOOKUP(A148,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E148" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4189,9 +4703,8 @@
         <f>VLOOKUP(A149,'Gini index'!A:B,2)</f>
         <v>48.8</v>
       </c>
-      <c r="E149" t="str">
-        <f>VLOOKUP(A149,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E149" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4209,9 +4722,8 @@
         <f>VLOOKUP(A150,'Gini index'!A:B,2)</f>
         <v>48.8</v>
       </c>
-      <c r="E150" t="str">
-        <f>VLOOKUP(A150,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E150" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4229,9 +4741,8 @@
         <f>VLOOKUP(A151,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-      <c r="E151" t="str">
-        <f>VLOOKUP(A151,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E151" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4249,9 +4760,8 @@
         <f>VLOOKUP(A152,'Gini index'!A:B,2)</f>
         <v>26.8</v>
       </c>
-      <c r="E152" t="str">
-        <f>VLOOKUP(A152,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E152" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4269,9 +4779,8 @@
         <f>VLOOKUP(A153,'Gini index'!A:B,2)</f>
         <v>30.7</v>
       </c>
-      <c r="E153" t="str">
-        <f>VLOOKUP(A153,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E153" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4289,9 +4798,8 @@
         <f>VLOOKUP(A154,'Gini index'!A:B,2)</f>
         <v>30.7</v>
       </c>
-      <c r="E154" t="str">
-        <f>VLOOKUP(A154,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E154" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4309,9 +4817,8 @@
         <f>VLOOKUP(A155,'Gini index'!A:B,2)</f>
         <v>50.7</v>
       </c>
-      <c r="E155" t="str">
-        <f>VLOOKUP(A155,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E155" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4329,9 +4836,8 @@
         <f>VLOOKUP(A156,'Gini index'!A:B,2)</f>
         <v>50.9</v>
       </c>
-      <c r="E156" t="str">
-        <f>VLOOKUP(A156,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E156" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4349,9 +4855,8 @@
         <f>VLOOKUP(A157,'Gini index'!A:B,2)</f>
         <v>51.7</v>
       </c>
-      <c r="E157" t="str">
-        <f>VLOOKUP(A157,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E157" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4369,9 +4874,8 @@
         <f>VLOOKUP(A158,'Gini index'!A:B,2)</f>
         <v>45.3</v>
       </c>
-      <c r="E158" t="str">
-        <f>VLOOKUP(A158,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E158" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4389,9 +4893,8 @@
         <f>VLOOKUP(A159,'Gini index'!A:B,2)</f>
         <v>44.4</v>
       </c>
-      <c r="E159" t="str">
-        <f>VLOOKUP(A159,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E159" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,9 +4912,8 @@
         <f>VLOOKUP(A160,'Gini index'!A:B,2)</f>
         <v>30.8</v>
       </c>
-      <c r="E160" t="str">
-        <f>VLOOKUP(A160,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E160" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4429,9 +4931,8 @@
         <f>VLOOKUP(A161,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E161" t="str">
-        <f>VLOOKUP(A161,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E161" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4449,9 +4950,8 @@
         <f>VLOOKUP(A162,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E162" t="str">
-        <f>VLOOKUP(A162,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E162" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4469,9 +4969,8 @@
         <f>VLOOKUP(A163,'Gini index'!A:B,2)</f>
         <v>33.9</v>
       </c>
-      <c r="E163" t="str">
-        <f>VLOOKUP(A163,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E163" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4489,9 +4988,8 @@
         <f>VLOOKUP(A164,'Gini index'!A:B,2)</f>
         <v>27.3</v>
       </c>
-      <c r="E164" t="str">
-        <f>VLOOKUP(A164,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E164" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4509,9 +5007,8 @@
         <f>VLOOKUP(A165,'Gini index'!A:B,2)</f>
         <v>41.2</v>
       </c>
-      <c r="E165" t="str">
-        <f>VLOOKUP(A165,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E165" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4529,9 +5026,8 @@
         <f>VLOOKUP(A166,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E166" t="str">
-        <f>VLOOKUP(A166,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E166" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -4549,9 +5045,8 @@
         <f>VLOOKUP(A167,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E167" t="str">
-        <f>VLOOKUP(A167,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E167" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -4569,9 +5064,8 @@
         <f>VLOOKUP(A168,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E168" t="str">
-        <f>VLOOKUP(A168,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E168" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -4589,9 +5083,8 @@
         <f>VLOOKUP(A169,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E169" t="str">
-        <f>VLOOKUP(A169,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E169" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4609,9 +5102,8 @@
         <f>VLOOKUP(A170,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E170" t="str">
-        <f>VLOOKUP(A170,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E170" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4629,9 +5121,8 @@
         <f>VLOOKUP(A171,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E171" t="str">
-        <f>VLOOKUP(A171,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E171" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -4649,9 +5140,8 @@
         <f>VLOOKUP(A172,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E172" t="str">
-        <f>VLOOKUP(A172,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E172" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -4669,9 +5159,8 @@
         <f>VLOOKUP(A173,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E173" t="str">
-        <f>VLOOKUP(A173,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E173" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -4689,9 +5178,8 @@
         <f>VLOOKUP(A174,'Gini index'!A:B,2)</f>
         <v>46.8</v>
       </c>
-      <c r="E174" t="str">
-        <f>VLOOKUP(A174,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E174" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -4709,9 +5197,8 @@
         <f>VLOOKUP(A175,'Gini index'!A:B,2)</f>
         <v>45.9</v>
       </c>
-      <c r="E175" t="str">
-        <f>VLOOKUP(A175,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E175" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -4729,9 +5216,8 @@
         <f>VLOOKUP(A176,'Gini index'!A:B,2)</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="E176" t="str">
-        <f>VLOOKUP(A176,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E176" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -4749,9 +5235,8 @@
         <f>VLOOKUP(A177,'Gini index'!A:B,2)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="E177" t="str">
-        <f>VLOOKUP(A177,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E177" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,9 +5254,8 @@
         <f>VLOOKUP(A178,'Gini index'!A:B,2)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="E178" t="str">
-        <f>VLOOKUP(A178,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E178" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,9 +5273,8 @@
         <f>VLOOKUP(A179,'Gini index'!A:B,2)</f>
         <v>34</v>
       </c>
-      <c r="E179" t="str">
-        <f>VLOOKUP(A179,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E179" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -4809,9 +5292,8 @@
         <f>VLOOKUP(A180,'Gini index'!A:B,2)</f>
         <v>45.8</v>
       </c>
-      <c r="E180" t="str">
-        <f>VLOOKUP(A180,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E180" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -4829,9 +5311,8 @@
         <f>VLOOKUP(A181,'Gini index'!A:B,2)</f>
         <v>45.8</v>
       </c>
-      <c r="E181" t="str">
-        <f>VLOOKUP(A181,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E181" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -4849,9 +5330,8 @@
         <f>VLOOKUP(A182,'Gini index'!A:B,2)</f>
         <v>23.7</v>
       </c>
-      <c r="E182" t="str">
-        <f>VLOOKUP(A182,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E182" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4869,9 +5349,8 @@
         <f>VLOOKUP(A183,'Gini index'!A:B,2)</f>
         <v>24.5</v>
       </c>
-      <c r="E183" t="str">
-        <f>VLOOKUP(A183,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E183" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,9 +5368,8 @@
         <f>VLOOKUP(A184,'Gini index'!A:B,2)</f>
         <v>24.5</v>
       </c>
-      <c r="E184" t="str">
-        <f>VLOOKUP(A184,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E184" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4909,9 +5387,8 @@
         <f>VLOOKUP(A185,'Gini index'!A:B,2)</f>
         <v>24.5</v>
       </c>
-      <c r="E185" t="str">
-        <f>VLOOKUP(A185,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E185" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,9 +5406,8 @@
         <f>VLOOKUP(A186,'Gini index'!A:B,2)</f>
         <v>62.5</v>
       </c>
-      <c r="E186" t="str">
-        <f>VLOOKUP(A186,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E186" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -4949,9 +5425,8 @@
         <f>VLOOKUP(A187,'Gini index'!A:B,2)</f>
         <v>35.9</v>
       </c>
-      <c r="E187" t="str">
-        <f>VLOOKUP(A187,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E187" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -4969,9 +5444,8 @@
         <f>VLOOKUP(A188,'Gini index'!A:B,2)</f>
         <v>49</v>
       </c>
-      <c r="E188" t="str">
-        <f>VLOOKUP(A188,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E188" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -4989,9 +5463,8 @@
         <f>VLOOKUP(A189,'Gini index'!A:B,2)</f>
         <v>49</v>
       </c>
-      <c r="E189" t="str">
-        <f>VLOOKUP(A189,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E189" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5009,9 +5482,8 @@
         <f>VLOOKUP(A190,'Gini index'!A:B,2)</f>
         <v>49</v>
       </c>
-      <c r="E190" t="str">
-        <f>VLOOKUP(A190,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E190" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5029,9 +5501,8 @@
         <f>VLOOKUP(A191,'Gini index'!A:B,2)</f>
         <v>50.4</v>
       </c>
-      <c r="E191" t="str">
-        <f>VLOOKUP(A191,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E191" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -5049,9 +5520,8 @@
         <f>VLOOKUP(A192,'Gini index'!A:B,2)</f>
         <v>24.9</v>
       </c>
-      <c r="E192" t="str">
-        <f>VLOOKUP(A192,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E192" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5069,9 +5539,8 @@
         <f>VLOOKUP(A193,'Gini index'!A:B,2)</f>
         <v>29.5</v>
       </c>
-      <c r="E193" t="str">
-        <f>VLOOKUP(A193,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E193" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5089,9 +5558,8 @@
         <f>VLOOKUP(A194,'Gini index'!A:B,2)</f>
         <v>29.5</v>
       </c>
-      <c r="E194" t="str">
-        <f>VLOOKUP(A194,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E194" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5109,9 +5577,8 @@
         <f>VLOOKUP(A195,'Gini index'!A:B,2)</f>
         <v>33.6</v>
       </c>
-      <c r="E195" t="str">
-        <f>VLOOKUP(A195,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E195" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,9 +5596,8 @@
         <f>VLOOKUP(A196,'Gini index'!A:B,2)</f>
         <v>32.6</v>
       </c>
-      <c r="E196" t="str">
-        <f>VLOOKUP(A196,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E196" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5149,9 +5615,8 @@
         <f>VLOOKUP(A197,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-      <c r="E197" t="str">
-        <f>VLOOKUP(A197,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E197" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5169,9 +5634,8 @@
         <f>VLOOKUP(A198,'Gini index'!A:B,2)</f>
         <v>44.5</v>
       </c>
-      <c r="E198" t="str">
-        <f>VLOOKUP(A198,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E198" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5189,9 +5653,8 @@
         <f>VLOOKUP(A199,'Gini index'!A:B,2)</f>
         <v>31.9</v>
       </c>
-      <c r="E199" t="str">
-        <f>VLOOKUP(A199,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E199" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5209,9 +5672,8 @@
         <f>VLOOKUP(A200,'Gini index'!A:B,2)</f>
         <v>46</v>
       </c>
-      <c r="E200" t="str">
-        <f>VLOOKUP(A200,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E200" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5229,9 +5691,8 @@
         <f>VLOOKUP(A201,'Gini index'!A:B,2)</f>
         <v>46</v>
       </c>
-      <c r="E201" t="str">
-        <f>VLOOKUP(A201,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E201" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5249,9 +5710,8 @@
         <f>VLOOKUP(A202,'Gini index'!A:B,2)</f>
         <v>46</v>
       </c>
-      <c r="E202" t="str">
-        <f>VLOOKUP(A202,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E202" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5269,9 +5729,8 @@
         <f>VLOOKUP(A203,'Gini index'!A:B,2)</f>
         <v>40</v>
       </c>
-      <c r="E203" t="str">
-        <f>VLOOKUP(A203,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E203" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5289,9 +5748,8 @@
         <f>VLOOKUP(A204,'Gini index'!A:B,2)</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="E204" t="str">
-        <f>VLOOKUP(A204,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E204" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5309,9 +5767,8 @@
         <f>VLOOKUP(A205,'Gini index'!A:B,2)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="E205" t="str">
-        <f>VLOOKUP(A205,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E205" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5329,9 +5786,8 @@
         <f>VLOOKUP(A206,'Gini index'!A:B,2)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="E206" t="str">
-        <f>VLOOKUP(A206,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E206" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5349,9 +5805,8 @@
         <f>VLOOKUP(A207,'Gini index'!A:B,2)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="E207" t="str">
-        <f>VLOOKUP(A207,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E207" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5369,9 +5824,8 @@
         <f>VLOOKUP(A208,'Gini index'!A:B,2)</f>
         <v>39.5</v>
       </c>
-      <c r="E208" t="str">
-        <f>VLOOKUP(A208,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E208" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5389,9 +5843,8 @@
         <f>VLOOKUP(A209,'Gini index'!A:B,2)</f>
         <v>24.6</v>
       </c>
-      <c r="E209" t="str">
-        <f>VLOOKUP(A209,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E209" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5409,9 +5862,8 @@
         <f>VLOOKUP(A210,'Gini index'!A:B,2)</f>
         <v>24.6</v>
       </c>
-      <c r="E210" t="str">
-        <f>VLOOKUP(A210,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E210" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5429,9 +5881,8 @@
         <f>VLOOKUP(A211,'Gini index'!A:B,2)</f>
         <v>32.4</v>
       </c>
-      <c r="E211" t="str">
-        <f>VLOOKUP(A211,Continents!A:B,2)</f>
-        <v>Europe</v>
+      <c r="E211" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5449,9 +5900,8 @@
         <f>VLOOKUP(A212,'Gini index'!A:B,2)</f>
         <v>45</v>
       </c>
-      <c r="E212" t="str">
-        <f>VLOOKUP(A212,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E212" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5469,9 +5919,8 @@
         <f>VLOOKUP(A213,'Gini index'!A:B,2)</f>
         <v>41.6</v>
       </c>
-      <c r="E213" t="str">
-        <f>VLOOKUP(A213,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E213" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5489,9 +5938,8 @@
         <f>VLOOKUP(A214,'Gini index'!A:B,2)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="E214" t="str">
-        <f>VLOOKUP(A214,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E214" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -5509,9 +5957,8 @@
         <f>VLOOKUP(A215,'Gini index'!A:B,2)</f>
         <v>36.799999999999997</v>
       </c>
-      <c r="E215" t="str">
-        <f>VLOOKUP(A215,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E215" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -5529,9 +5976,8 @@
         <f>VLOOKUP(A216,'Gini index'!A:B,2)</f>
         <v>39</v>
       </c>
-      <c r="E216" t="str">
-        <f>VLOOKUP(A216,Continents!A:B,2)</f>
-        <v>Americas</v>
+      <c r="E216" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5549,9 +5995,8 @@
         <f>VLOOKUP(A217,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-      <c r="E217" t="str">
-        <f>VLOOKUP(A217,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E217" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5569,9 +6014,8 @@
         <f>VLOOKUP(A218,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-      <c r="E218" t="str">
-        <f>VLOOKUP(A218,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E218" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5589,9 +6033,8 @@
         <f>VLOOKUP(A219,'Gini index'!A:B,2)</f>
         <v>37.6</v>
       </c>
-      <c r="E219" t="str">
-        <f>VLOOKUP(A219,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E219" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5609,9 +6052,8 @@
         <f>VLOOKUP(A220,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-      <c r="E220" t="str">
-        <f>VLOOKUP(A220,Continents!A:B,2)</f>
-        <v>Oceania</v>
+      <c r="E220" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5629,9 +6071,8 @@
         <f>VLOOKUP(A221,'Gini index'!A:B,2)</f>
         <v>34.5</v>
       </c>
-      <c r="E221" t="str">
-        <f>VLOOKUP(A221,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E221" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5649,9 +6090,8 @@
         <f>VLOOKUP(A222,'Gini index'!A:B,2)</f>
         <v>37.9</v>
       </c>
-      <c r="E222" t="str">
-        <f>VLOOKUP(A222,Continents!A:B,2)</f>
-        <v>Asia</v>
+      <c r="E222" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -5669,9 +6109,8 @@
         <f>VLOOKUP(A223,'Gini index'!A:B,2)</f>
         <v>57.5</v>
       </c>
-      <c r="E223" t="str">
-        <f>VLOOKUP(A223,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E223" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5689,13 +6128,12 @@
         <f>VLOOKUP(A224,'Gini index'!A:B,2)</f>
         <v>50.1</v>
       </c>
-      <c r="E224" t="str">
-        <f>VLOOKUP(A224,Continents!A:B,2)</f>
-        <v>Africa</v>
+      <c r="E224" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C225">
+  <sortState ref="A2:E224">
     <sortCondition ref="A2:A225"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,10 +6142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5717,2036 +6155,2020 @@
         <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>271</v>
+      <c r="A2" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>157</v>
+      <c r="A27" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>160</v>
+      <c r="A28" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>80</v>
+      <c r="A29" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>193</v>
+      <c r="A30" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>277</v>
-      </c>
-      <c r="B50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>263</v>
-      </c>
-    </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>190</v>
+      <c r="A63" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B63" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>75</v>
+      <c r="A64" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>60</v>
+      <c r="A65" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>265</v>
+      <c r="A66" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>78</v>
+      <c r="A67" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>141</v>
+      <c r="A68" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>114</v>
+      <c r="A69" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>182</v>
+      <c r="A70" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>178</v>
+      <c r="A71" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>82</v>
+      <c r="A72" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>195</v>
+      <c r="A73" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="B73" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>247</v>
+      <c r="A74" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>37</v>
+      <c r="A75" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>139</v>
+      <c r="A76" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>30</v>
+      <c r="A77" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>16</v>
+      <c r="A78" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>248</v>
+      <c r="A79" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>70</v>
+      <c r="A80" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>278</v>
+      <c r="A81" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>220</v>
+      <c r="A82" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>240</v>
+      <c r="A83" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>85</v>
+      <c r="A84" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>33</v>
+      <c r="A85" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>171</v>
+      <c r="A86" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="B86" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>45</v>
+      <c r="A87" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>35</v>
+      <c r="A88" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>145</v>
+      <c r="A89" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>122</v>
+      <c r="A90" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>249</v>
+      <c r="A91" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>93</v>
+      <c r="A92" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>146</v>
+      <c r="A93" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>8</v>
+      <c r="A94" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>200</v>
+      <c r="A95" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B95" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>222</v>
+      <c r="A96" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B96" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>279</v>
-      </c>
-      <c r="B99" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>255</v>
-      </c>
-      <c r="B101" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>90</v>
+      <c r="A102" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>5</v>
+      <c r="A103" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>163</v>
+      <c r="A104" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>142</v>
+      <c r="A105" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>128</v>
+      <c r="A106" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>116</v>
+      <c r="A107" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>32</v>
+      <c r="A108" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>28</v>
+      <c r="A109" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>11</v>
+      <c r="A110" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B110" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>14</v>
+      <c r="A111" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>129</v>
+      <c r="A112" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>1</v>
+      <c r="A113" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>19</v>
+      <c r="A114" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B114" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>118</v>
+      <c r="A115" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>151</v>
+      <c r="A116" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>185</v>
+      <c r="A117" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>173</v>
+      <c r="A118" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>63</v>
+      <c r="A119" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>155</v>
+      <c r="A120" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>183</v>
+      <c r="A121" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>120</v>
+      <c r="A122" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>67</v>
+      <c r="A123" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>215</v>
+      <c r="A124" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>194</v>
+      <c r="A125" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>84</v>
+      <c r="A126" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B126" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>18</v>
+      <c r="A127" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>111</v>
+      <c r="A128" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>12</v>
+      <c r="A129" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>256</v>
+      <c r="A130" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>87</v>
+      <c r="A131" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>174</v>
+      <c r="A132" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="B132" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>199</v>
+      <c r="A133" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B133" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>108</v>
+      <c r="A134" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>96</v>
+      <c r="A135" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>203</v>
+      <c r="A136" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>38</v>
+      <c r="A137" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>136</v>
+      <c r="A138" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>250</v>
+      <c r="A139" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>192</v>
+      <c r="A140" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>97</v>
+      <c r="A141" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="B141" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>241</v>
+      <c r="A142" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B142" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B143" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B144" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B145" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B146" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B149" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>266</v>
-      </c>
-      <c r="B143" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>280</v>
-      </c>
-      <c r="B145" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>159</v>
-      </c>
-      <c r="B148" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>229</v>
-      </c>
-      <c r="B149" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>121</v>
-      </c>
-      <c r="B150" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>76</v>
+      <c r="A151" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>214</v>
+      <c r="A152" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="B152" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>257</v>
+      <c r="A153" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>188</v>
+      <c r="A154" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="B154" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B155" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B157" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B159" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B160" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B155" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>251</v>
-      </c>
-      <c r="B158" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>258</v>
-      </c>
-      <c r="B159" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>64</v>
-      </c>
-      <c r="B160" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>26</v>
+      <c r="A161" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>132</v>
+      <c r="A162" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="B162" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>212</v>
+      <c r="A163" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="B163" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B164" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B166" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B169" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>213</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B170" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B171" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B172" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B173" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B176" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B177" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B180" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>230</v>
-      </c>
-      <c r="B165" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>281</v>
-      </c>
-      <c r="B166" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>259</v>
-      </c>
-      <c r="B167" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>106</v>
-      </c>
-      <c r="B168" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>17</v>
-      </c>
-      <c r="B169" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>98</v>
-      </c>
-      <c r="B170" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>260</v>
-      </c>
-      <c r="B173" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>54</v>
-      </c>
-      <c r="B174" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>170</v>
-      </c>
-      <c r="B175" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>71</v>
-      </c>
-      <c r="B176" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>261</v>
-      </c>
-      <c r="B177" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>125</v>
-      </c>
-      <c r="B178" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>161</v>
-      </c>
-      <c r="B179" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>282</v>
-      </c>
-      <c r="B180" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>66</v>
+      <c r="A181" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="B181" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>47</v>
+      <c r="A182" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>31</v>
+      <c r="A183" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="B183" t="s">
-        <v>245</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>51</v>
+      <c r="A184" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>242</v>
+      <c r="A185" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="B185" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>107</v>
+      <c r="A186" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="B186" t="s">
-        <v>263</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>153</v>
+      <c r="A187" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="B187" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>186</v>
+      <c r="A188" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="B188" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B189" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B191" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B192" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B193" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B194" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B195" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B196" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>244</v>
-      </c>
-      <c r="B189" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>252</v>
-      </c>
-      <c r="B190" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>243</v>
-      </c>
-      <c r="B191" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>94</v>
-      </c>
-      <c r="B192" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>65</v>
-      </c>
-      <c r="B193" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>231</v>
-      </c>
-      <c r="B194" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>36</v>
-      </c>
-      <c r="B195" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>103</v>
-      </c>
-      <c r="B196" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>124</v>
+      <c r="A197" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>4</v>
+      <c r="A198" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>104</v>
+      <c r="A199" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B199" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>198</v>
+      <c r="A200" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B200" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>99</v>
+      <c r="A201" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="B201" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>267</v>
+      <c r="A202" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="B202" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>117</v>
+      <c r="A203" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B203" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B204" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B205" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>208</v>
-      </c>
-      <c r="B204" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B206" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>74</v>
-      </c>
-      <c r="B206" t="s">
-        <v>263</v>
-      </c>
-    </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>61</v>
+      <c r="A207" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>102</v>
+      <c r="A208" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="B208" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>217</v>
+      <c r="A209" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="B209" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B210" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B211" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B212" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>189</v>
-      </c>
-      <c r="B210" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B213" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B214" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B215" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>283</v>
-      </c>
-      <c r="B211" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>262</v>
-      </c>
-      <c r="B212" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>21</v>
-      </c>
-      <c r="B213" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>81</v>
-      </c>
-      <c r="B214" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>184</v>
-      </c>
-      <c r="B215" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>147</v>
-      </c>
-      <c r="B216" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>268</v>
+      <c r="A217" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>219</v>
+      <c r="A218" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="B218" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>15</v>
+      <c r="A219" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="B219" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>9</v>
+      <c r="A220" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>110</v>
+      <c r="A221" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="B221" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>39</v>
+      <c r="A222" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>168</v>
+      <c r="A223" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="B223" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>196</v>
+      <c r="A224" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>115</v>
+      <c r="A225" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B225" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>165</v>
+      <c r="A226" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>176</v>
+      <c r="A227" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>233</v>
+      <c r="A228" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>86</v>
+      <c r="A229" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>137</v>
+      <c r="A230" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="B230" t="s">
-        <v>245</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>100</v>
+      <c r="A231" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>112</v>
+      <c r="A232" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="B232" t="s">
-        <v>254</v>
+        <v>489</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>158</v>
+      <c r="A233" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>41</v>
+      <c r="A234" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="B234" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>172</v>
+      <c r="A235" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="B235" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>284</v>
+      <c r="A236" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>496</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>253</v>
+      <c r="A237" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="B237" t="s">
-        <v>245</v>
+        <v>489</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>211</v>
+      <c r="A238" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="B238" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>149</v>
+      <c r="A239" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="B239" t="s">
-        <v>263</v>
+        <v>498</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>269</v>
+      <c r="A240" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>68</v>
+      <c r="A241" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>34</v>
+      <c r="A242" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>42</v>
+      <c r="A243" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>69</v>
+      <c r="A244" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>126</v>
+      <c r="A245" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>130</v>
+      <c r="A246" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="B246" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>270</v>
+      <c r="A247" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="B247" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>91</v>
+      <c r="A248" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>131</v>
+      <c r="A249" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>43</v>
+      <c r="A250" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="B250" t="s">
-        <v>272</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>191</v>
+      <c r="A251" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="B251" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>175</v>
+      <c r="A252" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>218</v>
-      </c>
-      <c r="B253" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>202</v>
-      </c>
-      <c r="B254" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B254">
-    <sortCondition ref="A2:A254"/>
+  <sortState ref="A2:B252">
+    <sortCondition ref="A2:A252"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
